--- a/app/api/lease/3.1_Fixed_Term_Lease_TH_&_Apartment.xlsx
+++ b/app/api/lease/3.1_Fixed_Term_Lease_TH_&_Apartment.xlsx
@@ -6,69 +6,69 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="Check53">Sheet1!$C$202</definedName>
-    <definedName localSheetId="0" name="Text125">Sheet1!$A$89</definedName>
-    <definedName localSheetId="0" name="Check83">Sheet1!$E$119</definedName>
-    <definedName localSheetId="0" name="Check86">Sheet1!$D$135</definedName>
-    <definedName localSheetId="0" name="Check92">Sheet1!$E$163</definedName>
-    <definedName localSheetId="0" name="Check87">Sheet1!$E$132</definedName>
-    <definedName localSheetId="0" name="Check91">Sheet1!$E$161</definedName>
+    <definedName localSheetId="0" name="Check53">Sheet1!$C$206</definedName>
+    <definedName localSheetId="0" name="Text125">Sheet1!$A$93</definedName>
+    <definedName localSheetId="0" name="Check83">Sheet1!$E$123</definedName>
+    <definedName localSheetId="0" name="Check86">Sheet1!$D$139</definedName>
+    <definedName localSheetId="0" name="Check92">Sheet1!$E$167</definedName>
+    <definedName localSheetId="0" name="Check87">Sheet1!$E$136</definedName>
+    <definedName localSheetId="0" name="Check91">Sheet1!$E$165</definedName>
     <definedName localSheetId="0" name="Text154">#REF!</definedName>
-    <definedName localSheetId="0" name="Check82">Sheet1!$E$117</definedName>
-    <definedName localSheetId="0" name="Check89">Sheet1!$E$157</definedName>
-    <definedName localSheetId="0" name="Check77">Sheet1!$D$240</definedName>
-    <definedName localSheetId="0" name="Check71">Sheet1!$D$226</definedName>
-    <definedName localSheetId="0" name="Text72">Sheet1!$B$59</definedName>
-    <definedName localSheetId="0" name="Check80">Sheet1!$D$256</definedName>
-    <definedName localSheetId="0" name="Check81">Sheet1!$E$115</definedName>
-    <definedName localSheetId="0" name="_Hlk46501208">Sheet1!$A$258</definedName>
-    <definedName localSheetId="0" name="Text103">Sheet1!$I$61</definedName>
-    <definedName localSheetId="0" name="Check51">Sheet1!$C$198</definedName>
-    <definedName localSheetId="0" name="_Hlk15457563">Sheet1!$A$211</definedName>
-    <definedName localSheetId="0" name="_Hlk17987639">Sheet1!$D$228</definedName>
-    <definedName localSheetId="0" name="Text138">Sheet1!$A$190</definedName>
-    <definedName localSheetId="0" name="Text148">Sheet1!$A$236</definedName>
-    <definedName localSheetId="0" name="Text147">Sheet1!$A$235</definedName>
-    <definedName localSheetId="0" name="Check61">Sheet1!$J$198</definedName>
-    <definedName localSheetId="0" name="Check90">Sheet1!$E$159</definedName>
-    <definedName localSheetId="0" name="Check106">Sheet1!$C$308</definedName>
-    <definedName localSheetId="0" name="Check60">Sheet1!$T$202</definedName>
-    <definedName localSheetId="0" name="Check72">Sheet1!$D$216</definedName>
-    <definedName localSheetId="0" name="Text146">Sheet1!$S$45</definedName>
-    <definedName localSheetId="0" name="Text73">Sheet1!$B$61</definedName>
-    <definedName localSheetId="0" name="Check78">Sheet1!$D$244</definedName>
-    <definedName localSheetId="0" name="Text107">Sheet1!$I$65</definedName>
-    <definedName localSheetId="0" name="Text63">Sheet1!$S$265</definedName>
-    <definedName localSheetId="0" name="Check97">Sheet1!$T$200</definedName>
-    <definedName localSheetId="0" name="Check85">Sheet1!$E$130</definedName>
-    <definedName localSheetId="0" name="Text106">Sheet1!$A$65</definedName>
-    <definedName localSheetId="0" name="Text151">Sheet1!$B$363</definedName>
-    <definedName localSheetId="0" name="Check73">Sheet1!$D$220</definedName>
-    <definedName localSheetId="0" name="Text100">Sheet1!$B$46</definedName>
-    <definedName localSheetId="0" name="Check79">Sheet1!$D$254</definedName>
-    <definedName localSheetId="0" name="Check52">Sheet1!$C$200</definedName>
-    <definedName localSheetId="0" name="Check104">Sheet1!$C$303</definedName>
-    <definedName localSheetId="0" name="Check105">Sheet1!$C$306</definedName>
-    <definedName localSheetId="0" name="Text71">Sheet1!$A$57</definedName>
-    <definedName localSheetId="0" name="Check93">Sheet1!$E$165</definedName>
-    <definedName localSheetId="0" name="Text136">Sheet1!$B$170</definedName>
-    <definedName localSheetId="0" name="Check94">Sheet1!$E$167</definedName>
-    <definedName localSheetId="0" name="Text135">Sheet1!$E$169</definedName>
-    <definedName localSheetId="0" name="Text133">Sheet1!$D$149</definedName>
-    <definedName localSheetId="0" name="Text104">Sheet1!$B$63</definedName>
-    <definedName localSheetId="0" name="Text105">Sheet1!$I$63</definedName>
-    <definedName localSheetId="0" name="Check96">Sheet1!$T$198</definedName>
-    <definedName localSheetId="0" name="Check54">Sheet1!$C$204</definedName>
-    <definedName localSheetId="0" name="Check102">Sheet1!$S$263</definedName>
-    <definedName localSheetId="0" name="Check107">Sheet1!$C$310</definedName>
-    <definedName localSheetId="0" name="Check62">Sheet1!$J$200</definedName>
+    <definedName localSheetId="0" name="Check82">Sheet1!$E$121</definedName>
+    <definedName localSheetId="0" name="Check89">Sheet1!$E$161</definedName>
+    <definedName localSheetId="0" name="Check77">Sheet1!$D$244</definedName>
+    <definedName localSheetId="0" name="Check71">Sheet1!$D$230</definedName>
+    <definedName localSheetId="0" name="Text72">Sheet1!$B$63</definedName>
+    <definedName localSheetId="0" name="Check80">Sheet1!$D$260</definedName>
+    <definedName localSheetId="0" name="Check81">Sheet1!$E$119</definedName>
+    <definedName localSheetId="0" name="_Hlk46501208">Sheet1!$A$262</definedName>
+    <definedName localSheetId="0" name="Text103">Sheet1!$I$65</definedName>
+    <definedName localSheetId="0" name="Check51">Sheet1!$C$202</definedName>
+    <definedName localSheetId="0" name="_Hlk15457563">Sheet1!$A$215</definedName>
+    <definedName localSheetId="0" name="_Hlk17987639">Sheet1!$D$232</definedName>
+    <definedName localSheetId="0" name="Text138">Sheet1!$A$194</definedName>
+    <definedName localSheetId="0" name="Text148">Sheet1!$A$240</definedName>
+    <definedName localSheetId="0" name="Text147">Sheet1!$A$239</definedName>
+    <definedName localSheetId="0" name="Check61">Sheet1!$J$202</definedName>
+    <definedName localSheetId="0" name="Check90">Sheet1!$E$163</definedName>
+    <definedName localSheetId="0" name="Check106">Sheet1!$C$312</definedName>
+    <definedName localSheetId="0" name="Check60">Sheet1!$T$206</definedName>
+    <definedName localSheetId="0" name="Check72">Sheet1!$D$220</definedName>
+    <definedName localSheetId="0" name="Text146">Sheet1!$S$49</definedName>
+    <definedName localSheetId="0" name="Text73">Sheet1!$B$65</definedName>
+    <definedName localSheetId="0" name="Check78">Sheet1!$D$248</definedName>
+    <definedName localSheetId="0" name="Text107">Sheet1!$I$69</definedName>
+    <definedName localSheetId="0" name="Text63">Sheet1!$S$269</definedName>
+    <definedName localSheetId="0" name="Check97">Sheet1!$T$204</definedName>
+    <definedName localSheetId="0" name="Check85">Sheet1!$E$134</definedName>
+    <definedName localSheetId="0" name="Text106">Sheet1!$A$69</definedName>
+    <definedName localSheetId="0" name="Text151">Sheet1!$B$367</definedName>
+    <definedName localSheetId="0" name="Check73">Sheet1!$D$224</definedName>
+    <definedName localSheetId="0" name="Text100">Sheet1!$B$50</definedName>
+    <definedName localSheetId="0" name="Check79">Sheet1!$D$258</definedName>
+    <definedName localSheetId="0" name="Check52">Sheet1!$C$204</definedName>
+    <definedName localSheetId="0" name="Check104">Sheet1!$C$307</definedName>
+    <definedName localSheetId="0" name="Check105">Sheet1!$C$310</definedName>
+    <definedName localSheetId="0" name="Text71">Sheet1!$A$61</definedName>
+    <definedName localSheetId="0" name="Check93">Sheet1!$E$169</definedName>
+    <definedName localSheetId="0" name="Text136">Sheet1!$B$174</definedName>
+    <definedName localSheetId="0" name="Check94">Sheet1!$E$171</definedName>
+    <definedName localSheetId="0" name="Text135">Sheet1!$E$173</definedName>
+    <definedName localSheetId="0" name="Text133">Sheet1!$D$153</definedName>
+    <definedName localSheetId="0" name="Text104">Sheet1!$B$67</definedName>
+    <definedName localSheetId="0" name="Text105">Sheet1!$I$67</definedName>
+    <definedName localSheetId="0" name="Check96">Sheet1!$T$202</definedName>
+    <definedName localSheetId="0" name="Check54">Sheet1!$C$208</definedName>
+    <definedName localSheetId="0" name="Check102">Sheet1!$S$267</definedName>
+    <definedName localSheetId="0" name="Check107">Sheet1!$C$314</definedName>
+    <definedName localSheetId="0" name="Check62">Sheet1!$J$204</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="246">
   <si>
     <t>THE ARBOR VICTORIAN LIVING LTD</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>And</t>
-  </si>
-  <si>
-    <t>Auto fill these</t>
   </si>
   <si>
     <r>
@@ -1929,6 +1926,12 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="6.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1965,12 +1968,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="2.0"/>
@@ -2068,7 +2065,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2085,12 +2082,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2233,7 +2224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2304,56 +2295,52 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2374,7 +2361,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2386,7 +2373,7 @@
     <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2405,10 +2392,10 @@
     <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2421,13 +2408,13 @@
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="23" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2532,7 +2519,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="114300"/>
@@ -2593,7 +2580,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="123825"/>
@@ -3162,265 +3149,191 @@
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="16" t="s">
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="28" t="s">
+      <c r="R24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28" t="s">
+    </row>
+    <row r="25" ht="3.75" customHeight="1">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="17"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-    </row>
-    <row r="25" ht="3.75" customHeight="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="30" t="s">
+      <c r="R27" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28" t="s">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="17"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="31" t="s">
+      <c r="R29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="31" t="s">
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="B30" s="17"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="B31" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="31" t="s">
+      <c r="R31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="31"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="B33" s="17"/>
@@ -3430,7 +3343,7 @@
         <v>2.0</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3473,1521 +3386,1580 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="3.75" customHeight="1">
       <c r="A37" s="14"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
+      <c r="A38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
     </row>
     <row r="39" ht="3.75" customHeight="1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="34"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="18"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
     </row>
     <row r="41" ht="3.75" customHeight="1">
-      <c r="A41" s="37"/>
+      <c r="A41" s="18"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="18"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+    </row>
+    <row r="43" ht="5.25" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+    </row>
+    <row r="45" ht="3.75" customHeight="1">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="9">
         <v>3.0</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B46" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+    </row>
+    <row r="47" ht="3.75" customHeight="1">
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-    </row>
-    <row r="43" ht="3.75" customHeight="1">
-      <c r="A43" s="14"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" ht="6.75" customHeight="1">
-      <c r="B45" s="20"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38">
-        <v>370.0</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="S47" s="39"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="S48" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S49" s="22" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="49" ht="6.75" customHeight="1">
+      <c r="B49" s="20"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="20"/>
+      <c r="S50" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="36">
+        <v>370.0</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="S51" s="37"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S52" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S53" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="B54" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="15" t="s">
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="15"/>
+      <c r="C56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="15"/>
-      <c r="C52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="X53" s="40"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="41"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P56" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="15"/>
-      <c r="B57" s="43"/>
-      <c r="P57" s="40"/>
-    </row>
-    <row r="58" ht="3.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="X57" s="38"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="39"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-      <c r="AK59" s="13"/>
+      <c r="A59" s="40"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
-      <c r="B60" s="22" t="s">
-        <v>48</v>
+      <c r="B60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="15"/>
-      <c r="B61" s="40"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B61" s="41"/>
+      <c r="P61" s="38"/>
+    </row>
+    <row r="62" ht="3.75" customHeight="1">
+      <c r="A62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="13"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="18"/>
-      <c r="B64" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R64" s="20"/>
+      <c r="B64" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
-      <c r="I65" s="15"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R66" s="20"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="S67" s="40"/>
-    </row>
-    <row r="68" ht="6.75" customHeight="1">
-      <c r="A68" s="15"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" ht="3.75" customHeight="1">
-      <c r="A69" s="44"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R68" s="20"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="18"/>
+      <c r="B69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R70" s="20"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="S71" s="38"/>
+    </row>
+    <row r="72" ht="6.75" customHeight="1">
+      <c r="A72" s="15"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" ht="3.75" customHeight="1">
+      <c r="A73" s="42"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="9">
         <v>5.0</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="13"/>
-      <c r="AF70" s="13"/>
-      <c r="AG70" s="13"/>
-      <c r="AH70" s="13"/>
-      <c r="AI70" s="13"/>
-      <c r="AJ70" s="13"/>
-      <c r="AK70" s="13"/>
-    </row>
-    <row r="71" ht="4.5" customHeight="1">
-      <c r="A71" s="45"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" ht="3.75" customHeight="1">
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S75" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="B74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+      <c r="AI74" s="13"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="13"/>
+    </row>
+    <row r="75" ht="4.5" customHeight="1">
+      <c r="A75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="S76" s="15">
-        <v>702.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S77" s="23" t="s">
-        <v>13</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" ht="3.75" customHeight="1">
+      <c r="B77" s="15"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="S78" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="20" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="S79" s="23" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S80" s="15">
+        <v>702.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="B81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S81" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="B82" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S82" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="B83" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S83" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="B84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="S84" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="15"/>
-      <c r="S81" s="22"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="15"/>
-      <c r="S82" s="22"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="46">
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="B85" s="15"/>
+      <c r="S85" s="22"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="B86" s="15"/>
+      <c r="S86" s="22"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="44">
         <v>6.0</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="13"/>
+      <c r="AG87" s="13"/>
+      <c r="AH87" s="13"/>
+      <c r="AI87" s="13"/>
+      <c r="AJ87" s="13"/>
+      <c r="AK87" s="13"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="43"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="11"/>
-      <c r="AC83" s="12"/>
-      <c r="AD83" s="13"/>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="13"/>
-      <c r="AI83" s="13"/>
-      <c r="AJ83" s="13"/>
-      <c r="AK83" s="13"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="45"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="22" t="s">
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="P90" s="45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="P86" s="47" t="s">
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="20"/>
+      <c r="B91" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="47"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
-      <c r="X87" s="47"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="18"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="23" t="s">
+      <c r="G93" s="20"/>
+      <c r="P93" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="P89" s="48" t="s">
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="20"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="20"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
+      <c r="AB95" s="11"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="13"/>
+      <c r="AE95" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
+      <c r="AH95" s="13"/>
+      <c r="AI95" s="13"/>
+      <c r="AJ95" s="13"/>
+      <c r="AK95" s="13"/>
+    </row>
+    <row r="96" ht="9.0" customHeight="1">
+      <c r="A96" s="47"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-      <c r="AA91" s="11"/>
-      <c r="AB91" s="11"/>
-      <c r="AC91" s="12"/>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13"/>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13"/>
-      <c r="AH91" s="13"/>
-      <c r="AI91" s="13"/>
-      <c r="AJ91" s="13"/>
-      <c r="AK91" s="13"/>
-    </row>
-    <row r="92" ht="9.0" customHeight="1">
-      <c r="A92" s="49"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="22" t="s">
+    </row>
+    <row r="98" ht="30.75" customHeight="1">
+      <c r="A98" s="48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="94" ht="30.75" customHeight="1">
-      <c r="A94" s="50" t="s">
+      <c r="AD98" s="48"/>
+      <c r="AE98" s="48"/>
+      <c r="AF98" s="48"/>
+      <c r="AG98" s="48"/>
+      <c r="AH98" s="48"/>
+      <c r="AI98" s="48"/>
+      <c r="AJ98" s="48"/>
+      <c r="AK98" s="48"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c r="A99" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="50"/>
-      <c r="AJ94" s="50"/>
-      <c r="AK94" s="50"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="51"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="51"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
-      <c r="V96" s="53"/>
-      <c r="W96" s="53"/>
-      <c r="X96" s="53"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="51"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="53"/>
-      <c r="W97" s="53"/>
-      <c r="X97" s="53"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="51"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
-      <c r="V98" s="53"/>
-      <c r="W98" s="53"/>
-      <c r="X98" s="53"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="53"/>
-      <c r="T99" s="53"/>
-      <c r="U99" s="53"/>
-      <c r="V99" s="53"/>
-      <c r="W99" s="53"/>
-      <c r="X99" s="53"/>
-      <c r="Y99" s="56"/>
-      <c r="Z99" s="56"/>
-      <c r="AA99" s="56"/>
-      <c r="AB99" s="56"/>
-      <c r="AC99" s="56"/>
-      <c r="AD99" s="56"/>
-      <c r="AE99" s="56"/>
-      <c r="AF99" s="56"/>
-      <c r="AG99" s="56"/>
-      <c r="AH99" s="56"/>
-      <c r="AI99" s="56"/>
-      <c r="AJ99" s="56"/>
-      <c r="AK99" s="56"/>
+      <c r="B99" s="49"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="51"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
-      <c r="V100" s="53"/>
-      <c r="W100" s="53"/>
-      <c r="X100" s="53"/>
-      <c r="Y100" s="56"/>
-      <c r="Z100" s="56"/>
-      <c r="AA100" s="56"/>
-      <c r="AB100" s="56"/>
-      <c r="AC100" s="56"/>
-      <c r="AD100" s="56"/>
-      <c r="AE100" s="56"/>
-      <c r="AF100" s="56"/>
-      <c r="AG100" s="56"/>
-      <c r="AH100" s="56"/>
-      <c r="AI100" s="56"/>
-      <c r="AJ100" s="56"/>
-      <c r="AK100" s="56"/>
+      <c r="A100" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="49"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
+      <c r="U100" s="51"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="51"/>
+      <c r="X100" s="51"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="51"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="53"/>
-      <c r="T101" s="53"/>
-      <c r="U101" s="53"/>
-      <c r="V101" s="53"/>
-      <c r="W101" s="53"/>
-      <c r="X101" s="53"/>
+        <v>67</v>
+      </c>
+      <c r="B101" s="49"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
+      <c r="X101" s="51"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="49"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="51"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="51"/>
+      <c r="X102" s="51"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c r="A103" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="54"/>
+      <c r="Z103" s="54"/>
+      <c r="AA103" s="54"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="54"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="54"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="54"/>
+      <c r="AH103" s="54"/>
+      <c r="AI103" s="54"/>
+      <c r="AJ103" s="54"/>
+      <c r="AK103" s="54"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c r="A104" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
+      <c r="X104" s="51"/>
+      <c r="Y104" s="54"/>
+      <c r="Z104" s="54"/>
+      <c r="AA104" s="54"/>
+      <c r="AB104" s="54"/>
+      <c r="AC104" s="54"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="54"/>
+      <c r="AF104" s="54"/>
+      <c r="AG104" s="54"/>
+      <c r="AH104" s="54"/>
+      <c r="AI104" s="54"/>
+      <c r="AJ104" s="54"/>
+      <c r="AK104" s="54"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c r="A105" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="49"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="51"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c r="A106" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="49"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="51"/>
+      <c r="U106" s="51"/>
+      <c r="V106" s="51"/>
+      <c r="W106" s="51"/>
+      <c r="X106" s="51"/>
+    </row>
+    <row r="107" ht="27.75" customHeight="1">
+      <c r="A107" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="51"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="53"/>
-      <c r="T102" s="53"/>
-      <c r="U102" s="53"/>
-      <c r="V102" s="53"/>
-      <c r="W102" s="53"/>
-      <c r="X102" s="53"/>
-    </row>
-    <row r="103" ht="27.75" customHeight="1">
-      <c r="A103" s="50" t="s">
+      <c r="AD107" s="48"/>
+      <c r="AE107" s="48"/>
+      <c r="AF107" s="48"/>
+      <c r="AG107" s="48"/>
+      <c r="AH107" s="48"/>
+      <c r="AI107" s="48"/>
+      <c r="AJ107" s="48"/>
+      <c r="AK107" s="48"/>
+    </row>
+    <row r="108" ht="42.75" customHeight="1">
+      <c r="A108" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AD103" s="50"/>
-      <c r="AE103" s="50"/>
-      <c r="AF103" s="50"/>
-      <c r="AG103" s="50"/>
-      <c r="AH103" s="50"/>
-      <c r="AI103" s="50"/>
-      <c r="AJ103" s="50"/>
-      <c r="AK103" s="50"/>
-    </row>
-    <row r="104" ht="42.75" customHeight="1">
-      <c r="A104" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD104" s="50"/>
-      <c r="AE104" s="50"/>
-      <c r="AF104" s="50"/>
-      <c r="AG104" s="50"/>
-      <c r="AH104" s="50"/>
-      <c r="AI104" s="50"/>
-      <c r="AJ104" s="50"/>
-      <c r="AK104" s="50"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B107" s="51"/>
-      <c r="G107" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
-      <c r="P107" s="53"/>
-      <c r="Q107" s="53"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="53"/>
-      <c r="T107" s="53"/>
-      <c r="U107" s="53"/>
-      <c r="V107" s="53"/>
-      <c r="W107" s="53"/>
-      <c r="X107" s="53"/>
-    </row>
-    <row r="108" ht="57.75" customHeight="1">
-      <c r="A108" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD108" s="50"/>
-      <c r="AE108" s="50"/>
-      <c r="AF108" s="50"/>
-      <c r="AG108" s="50"/>
-      <c r="AH108" s="50"/>
-      <c r="AI108" s="50"/>
-      <c r="AJ108" s="50"/>
-      <c r="AK108" s="50"/>
+      <c r="AD108" s="48"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="48"/>
+      <c r="AG108" s="48"/>
+      <c r="AH108" s="48"/>
+      <c r="AI108" s="48"/>
+      <c r="AJ108" s="48"/>
+      <c r="AK108" s="48"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c r="A111" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="49"/>
+      <c r="G111" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="51"/>
+      <c r="U111" s="51"/>
+      <c r="V111" s="51"/>
+      <c r="W111" s="51"/>
+      <c r="X111" s="51"/>
+    </row>
+    <row r="112" ht="57.75" customHeight="1">
+      <c r="A112" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD112" s="48"/>
+      <c r="AE112" s="48"/>
+      <c r="AF112" s="48"/>
+      <c r="AG112" s="48"/>
+      <c r="AH112" s="48"/>
+      <c r="AI112" s="48"/>
+      <c r="AJ112" s="48"/>
+      <c r="AK112" s="48"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" ht="29.25" customHeight="1">
+      <c r="A114" s="48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="110" ht="29.25" customHeight="1">
-      <c r="A110" s="50" t="s">
+      <c r="AD114" s="48"/>
+      <c r="AE114" s="48"/>
+      <c r="AF114" s="48"/>
+      <c r="AG114" s="48"/>
+      <c r="AH114" s="48"/>
+      <c r="AI114" s="48"/>
+      <c r="AJ114" s="48"/>
+      <c r="AK114" s="48"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="AD110" s="50"/>
-      <c r="AE110" s="50"/>
-      <c r="AF110" s="50"/>
-      <c r="AG110" s="50"/>
-      <c r="AH110" s="50"/>
-      <c r="AI110" s="50"/>
-      <c r="AJ110" s="50"/>
-      <c r="AK110" s="50"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="50" t="s">
+      <c r="AD115" s="48"/>
+      <c r="AE115" s="48"/>
+      <c r="AF115" s="48"/>
+      <c r="AG115" s="48"/>
+      <c r="AH115" s="48"/>
+      <c r="AI115" s="48"/>
+      <c r="AJ115" s="48"/>
+      <c r="AK115" s="48"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="AD111" s="50"/>
-      <c r="AE111" s="50"/>
-      <c r="AF111" s="50"/>
-      <c r="AG111" s="50"/>
-      <c r="AH111" s="50"/>
-      <c r="AI111" s="50"/>
-      <c r="AJ111" s="50"/>
-      <c r="AK111" s="50"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="60" t="s">
+      <c r="AD116" s="58"/>
+      <c r="AE116" s="58"/>
+      <c r="AF116" s="58"/>
+      <c r="AG116" s="58"/>
+      <c r="AH116" s="58"/>
+      <c r="AI116" s="58"/>
+      <c r="AJ116" s="58"/>
+      <c r="AK116" s="58"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="AD117" s="58"/>
+      <c r="AE117" s="58"/>
+      <c r="AF117" s="58"/>
+      <c r="AG117" s="58"/>
+      <c r="AH117" s="58"/>
+      <c r="AI117" s="58"/>
+      <c r="AJ117" s="58"/>
+      <c r="AK117" s="58"/>
+    </row>
+    <row r="118" ht="7.5" customHeight="1">
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="58"/>
+      <c r="O118" s="58"/>
+      <c r="P118" s="58"/>
+      <c r="Q118" s="58"/>
+      <c r="R118" s="58"/>
+      <c r="S118" s="58"/>
+      <c r="T118" s="58"/>
+      <c r="U118" s="58"/>
+      <c r="V118" s="58"/>
+      <c r="W118" s="58"/>
+      <c r="X118" s="58"/>
+      <c r="Y118" s="58"/>
+      <c r="Z118" s="58"/>
+      <c r="AA118" s="58"/>
+      <c r="AB118" s="58"/>
+      <c r="AC118" s="58"/>
+      <c r="AD118" s="58"/>
+      <c r="AE118" s="58"/>
+      <c r="AF118" s="58"/>
+      <c r="AG118" s="58"/>
+      <c r="AH118" s="58"/>
+      <c r="AI118" s="58"/>
+      <c r="AJ118" s="58"/>
+      <c r="AK118" s="58"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="D119" s="59"/>
+      <c r="E119" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="AD112" s="60"/>
-      <c r="AE112" s="60"/>
-      <c r="AF112" s="60"/>
-      <c r="AG112" s="60"/>
-      <c r="AH112" s="60"/>
-      <c r="AI112" s="60"/>
-      <c r="AJ112" s="60"/>
-      <c r="AK112" s="60"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="AD113" s="60"/>
-      <c r="AE113" s="60"/>
-      <c r="AF113" s="60"/>
-      <c r="AG113" s="60"/>
-      <c r="AH113" s="60"/>
-      <c r="AI113" s="60"/>
-      <c r="AJ113" s="60"/>
-      <c r="AK113" s="60"/>
-    </row>
-    <row r="114" ht="7.5" customHeight="1">
-      <c r="A114" s="60"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="60"/>
-      <c r="O114" s="60"/>
-      <c r="P114" s="60"/>
-      <c r="Q114" s="60"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="60"/>
-      <c r="T114" s="60"/>
-      <c r="U114" s="60"/>
-      <c r="V114" s="60"/>
-      <c r="W114" s="60"/>
-      <c r="X114" s="60"/>
-      <c r="Y114" s="60"/>
-      <c r="Z114" s="60"/>
-      <c r="AA114" s="60"/>
-      <c r="AB114" s="60"/>
-      <c r="AC114" s="60"/>
-      <c r="AD114" s="60"/>
-      <c r="AE114" s="60"/>
-      <c r="AF114" s="60"/>
-      <c r="AG114" s="60"/>
-      <c r="AH114" s="60"/>
-      <c r="AI114" s="60"/>
-      <c r="AJ114" s="60"/>
-      <c r="AK114" s="60"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="61"/>
-      <c r="E115" s="62" t="s">
+    </row>
+    <row r="120" ht="6.0" customHeight="1">
+      <c r="E120" s="22"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="D121" s="59"/>
+      <c r="E121" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" ht="6.0" customHeight="1">
-      <c r="E116" s="22"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="61"/>
-      <c r="E117" s="23" t="s">
+    <row r="122" ht="4.5" customHeight="1">
+      <c r="E122" s="23"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="D123" s="59"/>
+      <c r="E123" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" ht="4.5" customHeight="1">
-      <c r="E118" s="23"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="61"/>
-      <c r="E119" s="23" t="s">
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="15"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="15" t="s">
+    <row r="126" ht="9.0" customHeight="1">
+      <c r="A126" s="61"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="44">
+        <v>8.0</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="122" ht="9.0" customHeight="1">
-      <c r="A122" s="63"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="46">
-        <v>8.0</v>
-      </c>
-      <c r="B123" s="10" t="s">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="11"/>
+      <c r="V127" s="11"/>
+      <c r="W127" s="11"/>
+      <c r="X127" s="11"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="11"/>
+      <c r="AA127" s="11"/>
+      <c r="AB127" s="11"/>
+      <c r="AC127" s="12"/>
+      <c r="AD127" s="13"/>
+      <c r="AE127" s="13"/>
+      <c r="AF127" s="13"/>
+      <c r="AG127" s="13"/>
+      <c r="AH127" s="13"/>
+      <c r="AI127" s="13"/>
+      <c r="AJ127" s="13"/>
+      <c r="AK127" s="13"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="18"/>
+      <c r="B128" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-      <c r="P123" s="11"/>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11"/>
-      <c r="U123" s="11"/>
-      <c r="V123" s="11"/>
-      <c r="W123" s="11"/>
-      <c r="X123" s="11"/>
-      <c r="Y123" s="11"/>
-      <c r="Z123" s="11"/>
-      <c r="AA123" s="11"/>
-      <c r="AB123" s="11"/>
-      <c r="AC123" s="12"/>
-      <c r="AD123" s="13"/>
-      <c r="AE123" s="13"/>
-      <c r="AF123" s="13"/>
-      <c r="AG123" s="13"/>
-      <c r="AH123" s="13"/>
-      <c r="AI123" s="13"/>
-      <c r="AJ123" s="13"/>
-      <c r="AK123" s="13"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="18"/>
-      <c r="B124" s="22" t="s">
+      <c r="D128" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D124" s="22" t="s">
+    </row>
+    <row r="129" ht="30.0" customHeight="1">
+      <c r="D129" s="58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="125" ht="30.0" customHeight="1">
-      <c r="D125" s="60" t="s">
+      <c r="AD129" s="58"/>
+      <c r="AE129" s="58"/>
+      <c r="AF129" s="58"/>
+      <c r="AG129" s="58"/>
+      <c r="AH129" s="58"/>
+      <c r="AI129" s="58"/>
+      <c r="AJ129" s="58"/>
+      <c r="AK129" s="58"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="61"/>
+      <c r="D130" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AD125" s="60"/>
-      <c r="AE125" s="60"/>
-      <c r="AF125" s="60"/>
-      <c r="AG125" s="60"/>
-      <c r="AH125" s="60"/>
-      <c r="AI125" s="60"/>
-      <c r="AJ125" s="60"/>
-      <c r="AK125" s="60"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="63"/>
-      <c r="D126" s="22" t="s">
+    </row>
+    <row r="131" ht="6.0" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="D132" s="59"/>
+      <c r="E132" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" ht="6.0" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="61"/>
-      <c r="E128" s="23" t="s">
+    <row r="133" ht="6.0" customHeight="1">
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="D134" s="59"/>
+      <c r="E134" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="129" ht="6.0" customHeight="1">
-      <c r="E129" s="23"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="61"/>
-      <c r="E130" s="23" t="s">
+    <row r="135" ht="6.0" customHeight="1">
+      <c r="E135" s="23"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="D136" s="59"/>
+      <c r="E136" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="131" ht="6.0" customHeight="1">
-      <c r="E131" s="23"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="61"/>
-      <c r="E132" s="23" t="s">
+    <row r="137" ht="29.25" customHeight="1">
+      <c r="A137" s="18"/>
+      <c r="D137" s="58" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" ht="29.25" customHeight="1">
-      <c r="A133" s="18"/>
-      <c r="D133" s="60" t="s">
+      <c r="AD137" s="58"/>
+      <c r="AE137" s="58"/>
+      <c r="AF137" s="58"/>
+      <c r="AG137" s="58"/>
+      <c r="AH137" s="58"/>
+      <c r="AI137" s="58"/>
+      <c r="AJ137" s="58"/>
+      <c r="AK137" s="58"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="18"/>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="18"/>
+      <c r="B139" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AD133" s="60"/>
-      <c r="AE133" s="60"/>
-      <c r="AF133" s="60"/>
-      <c r="AG133" s="60"/>
-      <c r="AH133" s="60"/>
-      <c r="AI133" s="60"/>
-      <c r="AJ133" s="60"/>
-      <c r="AK133" s="60"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="18"/>
-      <c r="D134" s="22"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="18"/>
-      <c r="B135" s="64" t="s">
+      <c r="D139" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D135" s="22" t="s">
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="D140" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="22" t="s">
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="D141" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="22" t="s">
+      <c r="I141" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="I137" s="58" t="s">
+      <c r="J141" s="51"/>
+      <c r="K141" s="51"/>
+      <c r="L141" s="51"/>
+      <c r="M141" s="63">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="D142" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J137" s="53"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="53"/>
-      <c r="M137" s="65">
-        <v>2023.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="22" t="s">
+      <c r="I142" s="64">
+        <v>30.0</v>
+      </c>
+      <c r="J142" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="I138" s="66">
-        <v>30.0</v>
-      </c>
-      <c r="J138" s="40" t="s">
+      <c r="K142" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K138" s="40" t="s">
+      <c r="L142" s="38"/>
+      <c r="M142" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="L138" s="40"/>
-      <c r="M138" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="N138" s="53"/>
-      <c r="O138" s="53"/>
-      <c r="P138" s="53"/>
-      <c r="Q138" s="65">
+      <c r="N142" s="51"/>
+      <c r="O142" s="51"/>
+      <c r="P142" s="51"/>
+      <c r="Q142" s="63">
         <v>2024.0</v>
       </c>
     </row>
-    <row r="139" ht="4.5" customHeight="1">
-      <c r="A139" s="18"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="D140" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD140" s="60"/>
-      <c r="AE140" s="60"/>
-      <c r="AF140" s="60"/>
-      <c r="AG140" s="60"/>
-      <c r="AH140" s="60"/>
-      <c r="AI140" s="60"/>
-      <c r="AJ140" s="60"/>
-      <c r="AK140" s="60"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="AD141" s="60"/>
-      <c r="AE141" s="60"/>
-      <c r="AF141" s="60"/>
-      <c r="AG141" s="60"/>
-      <c r="AH141" s="60"/>
-      <c r="AI141" s="60"/>
-      <c r="AJ141" s="60"/>
-      <c r="AK141" s="60"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="AD142" s="60"/>
-      <c r="AE142" s="60"/>
-      <c r="AF142" s="60"/>
-      <c r="AG142" s="60"/>
-      <c r="AH142" s="60"/>
-      <c r="AI142" s="60"/>
-      <c r="AJ142" s="60"/>
-      <c r="AK142" s="60"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" ht="4.5" customHeight="1">
       <c r="A143" s="18"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="18"/>
+      <c r="D144" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD144" s="58"/>
+      <c r="AE144" s="58"/>
+      <c r="AF144" s="58"/>
+      <c r="AG144" s="58"/>
+      <c r="AH144" s="58"/>
+      <c r="AI144" s="58"/>
+      <c r="AJ144" s="58"/>
+      <c r="AK144" s="58"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="18"/>
+      <c r="AD145" s="58"/>
+      <c r="AE145" s="58"/>
+      <c r="AF145" s="58"/>
+      <c r="AG145" s="58"/>
+      <c r="AH145" s="58"/>
+      <c r="AI145" s="58"/>
+      <c r="AJ145" s="58"/>
+      <c r="AK145" s="58"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="18"/>
+      <c r="AD146" s="58"/>
+      <c r="AE146" s="58"/>
+      <c r="AF146" s="58"/>
+      <c r="AG146" s="58"/>
+      <c r="AH146" s="58"/>
+      <c r="AI146" s="58"/>
+      <c r="AJ146" s="58"/>
+      <c r="AK146" s="58"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="46">
+      <c r="A147" s="18"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="18"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="18"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="18"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="44">
         <v>9.0</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B151" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="11"/>
+      <c r="U151" s="11"/>
+      <c r="V151" s="11"/>
+      <c r="W151" s="11"/>
+      <c r="X151" s="11"/>
+      <c r="Y151" s="11"/>
+      <c r="Z151" s="11"/>
+      <c r="AA151" s="11"/>
+      <c r="AB151" s="11"/>
+      <c r="AC151" s="12"/>
+      <c r="AD151" s="13"/>
+      <c r="AE151" s="13"/>
+      <c r="AF151" s="13"/>
+      <c r="AG151" s="13"/>
+      <c r="AH151" s="13"/>
+      <c r="AI151" s="13"/>
+      <c r="AJ151" s="13"/>
+      <c r="AK151" s="13"/>
+    </row>
+    <row r="152" ht="1.5" customHeight="1">
+      <c r="A152" s="65"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="15"/>
+      <c r="T152" s="15"/>
+      <c r="U152" s="15"/>
+      <c r="V152" s="15"/>
+      <c r="W152" s="15"/>
+      <c r="X152" s="15"/>
+      <c r="Y152" s="15"/>
+      <c r="Z152" s="15"/>
+      <c r="AA152" s="15"/>
+      <c r="AB152" s="15"/>
+      <c r="AC152" s="15"/>
+      <c r="AD152" s="15"/>
+      <c r="AE152" s="15"/>
+      <c r="AF152" s="15"/>
+      <c r="AG152" s="15"/>
+      <c r="AH152" s="15"/>
+      <c r="AI152" s="15"/>
+      <c r="AJ152" s="15"/>
+      <c r="AK152" s="15"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="59"/>
+      <c r="D153" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11"/>
-      <c r="V147" s="11"/>
-      <c r="W147" s="11"/>
-      <c r="X147" s="11"/>
-      <c r="Y147" s="11"/>
-      <c r="Z147" s="11"/>
-      <c r="AA147" s="11"/>
-      <c r="AB147" s="11"/>
-      <c r="AC147" s="12"/>
-      <c r="AD147" s="13"/>
-      <c r="AE147" s="13"/>
-      <c r="AF147" s="13"/>
-      <c r="AG147" s="13"/>
-      <c r="AH147" s="13"/>
-      <c r="AI147" s="13"/>
-      <c r="AJ147" s="13"/>
-      <c r="AK147" s="13"/>
-    </row>
-    <row r="148" ht="1.5" customHeight="1">
-      <c r="A148" s="67"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="15"/>
-      <c r="S148" s="15"/>
-      <c r="T148" s="15"/>
-      <c r="U148" s="15"/>
-      <c r="V148" s="15"/>
-      <c r="W148" s="15"/>
-      <c r="X148" s="15"/>
-      <c r="Y148" s="15"/>
-      <c r="Z148" s="15"/>
-      <c r="AA148" s="15"/>
-      <c r="AB148" s="15"/>
-      <c r="AC148" s="15"/>
-      <c r="AD148" s="15"/>
-      <c r="AE148" s="15"/>
-      <c r="AF148" s="15"/>
-      <c r="AG148" s="15"/>
-      <c r="AH148" s="15"/>
-      <c r="AI148" s="15"/>
-      <c r="AJ148" s="15"/>
-      <c r="AK148" s="15"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="61"/>
-      <c r="D149" s="50" t="s">
+      <c r="AD153" s="48"/>
+      <c r="AE153" s="48"/>
+      <c r="AF153" s="48"/>
+      <c r="AG153" s="48"/>
+      <c r="AH153" s="48"/>
+      <c r="AI153" s="48"/>
+      <c r="AJ153" s="48"/>
+      <c r="AK153" s="48"/>
+    </row>
+    <row r="154" ht="12.75" customHeight="1">
+      <c r="AD154" s="48"/>
+      <c r="AE154" s="48"/>
+      <c r="AF154" s="48"/>
+      <c r="AG154" s="48"/>
+      <c r="AH154" s="48"/>
+      <c r="AI154" s="48"/>
+      <c r="AJ154" s="48"/>
+      <c r="AK154" s="48"/>
+    </row>
+    <row r="155" ht="12.75" customHeight="1">
+      <c r="A155" s="18"/>
+      <c r="AD155" s="48"/>
+      <c r="AE155" s="48"/>
+      <c r="AF155" s="48"/>
+      <c r="AG155" s="48"/>
+      <c r="AH155" s="48"/>
+      <c r="AI155" s="48"/>
+      <c r="AJ155" s="48"/>
+      <c r="AK155" s="48"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="18"/>
+      <c r="E156" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="AD149" s="50"/>
-      <c r="AE149" s="50"/>
-      <c r="AF149" s="50"/>
-      <c r="AG149" s="50"/>
-      <c r="AH149" s="50"/>
-      <c r="AI149" s="50"/>
-      <c r="AJ149" s="50"/>
-      <c r="AK149" s="50"/>
-    </row>
-    <row r="150" ht="12.75" customHeight="1">
-      <c r="AD150" s="50"/>
-      <c r="AE150" s="50"/>
-      <c r="AF150" s="50"/>
-      <c r="AG150" s="50"/>
-      <c r="AH150" s="50"/>
-      <c r="AI150" s="50"/>
-      <c r="AJ150" s="50"/>
-      <c r="AK150" s="50"/>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="18"/>
-      <c r="AD151" s="50"/>
-      <c r="AE151" s="50"/>
-      <c r="AF151" s="50"/>
-      <c r="AG151" s="50"/>
-      <c r="AH151" s="50"/>
-      <c r="AI151" s="50"/>
-      <c r="AJ151" s="50"/>
-      <c r="AK151" s="50"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="18"/>
-      <c r="E152" s="68" t="s">
+      <c r="F156" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F152" s="69" t="s">
+      <c r="AD156" s="67"/>
+      <c r="AE156" s="67"/>
+      <c r="AF156" s="67"/>
+      <c r="AG156" s="67"/>
+      <c r="AH156" s="67"/>
+      <c r="AI156" s="67"/>
+      <c r="AJ156" s="67"/>
+      <c r="AK156" s="67"/>
+    </row>
+    <row r="157" ht="12.75" customHeight="1">
+      <c r="A157" s="68"/>
+      <c r="AD157" s="67"/>
+      <c r="AE157" s="67"/>
+      <c r="AF157" s="67"/>
+      <c r="AG157" s="67"/>
+      <c r="AH157" s="67"/>
+      <c r="AI157" s="67"/>
+      <c r="AJ157" s="67"/>
+      <c r="AK157" s="67"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="18"/>
+      <c r="E158" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="AD152" s="69"/>
-      <c r="AE152" s="69"/>
-      <c r="AF152" s="69"/>
-      <c r="AG152" s="69"/>
-      <c r="AH152" s="69"/>
-      <c r="AI152" s="69"/>
-      <c r="AJ152" s="69"/>
-      <c r="AK152" s="69"/>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="70"/>
-      <c r="AD153" s="69"/>
-      <c r="AE153" s="69"/>
-      <c r="AF153" s="69"/>
-      <c r="AG153" s="69"/>
-      <c r="AH153" s="69"/>
-      <c r="AI153" s="69"/>
-      <c r="AJ153" s="69"/>
-      <c r="AK153" s="69"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="18"/>
-      <c r="E154" s="68" t="s">
+      <c r="F158" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F154" s="21" t="s">
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="B155" s="10" t="s">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+      <c r="U159" s="11"/>
+      <c r="V159" s="11"/>
+      <c r="W159" s="11"/>
+      <c r="X159" s="11"/>
+      <c r="Y159" s="11"/>
+      <c r="Z159" s="11"/>
+      <c r="AA159" s="11"/>
+      <c r="AB159" s="11"/>
+      <c r="AC159" s="12"/>
+      <c r="AD159" s="13"/>
+      <c r="AE159" s="13"/>
+      <c r="AF159" s="13"/>
+      <c r="AG159" s="13"/>
+      <c r="AH159" s="13"/>
+      <c r="AI159" s="13"/>
+      <c r="AJ159" s="13"/>
+      <c r="AK159" s="13"/>
+    </row>
+    <row r="160" ht="12.75" customHeight="1">
+      <c r="A160" s="18"/>
+      <c r="B160" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="11"/>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
-      <c r="P155" s="11"/>
-      <c r="Q155" s="11"/>
-      <c r="R155" s="11"/>
-      <c r="S155" s="11"/>
-      <c r="T155" s="11"/>
-      <c r="U155" s="11"/>
-      <c r="V155" s="11"/>
-      <c r="W155" s="11"/>
-      <c r="X155" s="11"/>
-      <c r="Y155" s="11"/>
-      <c r="Z155" s="11"/>
-      <c r="AA155" s="11"/>
-      <c r="AB155" s="11"/>
-      <c r="AC155" s="12"/>
-      <c r="AD155" s="13"/>
-      <c r="AE155" s="13"/>
-      <c r="AF155" s="13"/>
-      <c r="AG155" s="13"/>
-      <c r="AH155" s="13"/>
-      <c r="AI155" s="13"/>
-      <c r="AJ155" s="13"/>
-      <c r="AK155" s="13"/>
-    </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="18"/>
-      <c r="B156" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="K156" s="71"/>
-      <c r="L156" s="53"/>
-      <c r="M156" s="53"/>
-      <c r="N156" s="72"/>
-      <c r="O156" s="72"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="18"/>
-      <c r="B157" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D157" s="61"/>
-      <c r="E157" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" ht="3.0" customHeight="1">
-      <c r="A158" s="18"/>
-      <c r="B158" s="22"/>
-      <c r="E158" s="22"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="61"/>
-      <c r="E159" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="160" ht="3.0" customHeight="1">
-      <c r="A160" s="18"/>
-      <c r="B160" s="22"/>
-      <c r="E160" s="22"/>
+      <c r="K160" s="69"/>
+      <c r="L160" s="51"/>
+      <c r="M160" s="51"/>
+      <c r="N160" s="70"/>
+      <c r="O160" s="70"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D161" s="61"/>
-      <c r="E161" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="D161" s="59"/>
+      <c r="E161" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="162" ht="3.0" customHeight="1">
@@ -4996,31 +4968,35 @@
       <c r="E162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="61"/>
+      <c r="D163" s="59"/>
       <c r="E163" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164" ht="3.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" ht="3.0" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="22"/>
       <c r="E164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="61"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D165" s="59"/>
       <c r="E165" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="166" ht="3.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="3.0" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="22"/>
       <c r="E166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="61"/>
+      <c r="D167" s="59"/>
       <c r="E167" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" ht="3.75" customHeight="1">
@@ -5029,400 +5005,360 @@
       <c r="E168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="61"/>
+      <c r="D169" s="59"/>
       <c r="E169" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" ht="12.75" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" ht="3.75" customHeight="1">
       <c r="A170" s="18"/>
-      <c r="B170" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="18"/>
-      <c r="B171" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="172" ht="12.75" customHeight="1">
+      <c r="B170" s="22"/>
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="D171" s="59"/>
+      <c r="E171" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" ht="3.75" customHeight="1">
       <c r="A172" s="18"/>
-      <c r="B172" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="B172" s="22"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
-      <c r="O173" s="11"/>
-      <c r="P173" s="11"/>
-      <c r="Q173" s="11"/>
-      <c r="R173" s="11"/>
-      <c r="S173" s="11"/>
-      <c r="T173" s="11"/>
-      <c r="U173" s="11"/>
-      <c r="V173" s="11"/>
-      <c r="W173" s="11"/>
-      <c r="X173" s="11"/>
-      <c r="Y173" s="11"/>
-      <c r="Z173" s="11"/>
-      <c r="AA173" s="11"/>
-      <c r="AB173" s="11"/>
-      <c r="AC173" s="12"/>
-      <c r="AD173" s="13"/>
-      <c r="AE173" s="13"/>
-      <c r="AF173" s="13"/>
-      <c r="AG173" s="13"/>
-      <c r="AH173" s="13"/>
-      <c r="AI173" s="13"/>
-      <c r="AJ173" s="13"/>
-      <c r="AK173" s="13"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="23" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="11"/>
+      <c r="U177" s="11"/>
+      <c r="V177" s="11"/>
+      <c r="W177" s="11"/>
+      <c r="X177" s="11"/>
+      <c r="Y177" s="11"/>
+      <c r="Z177" s="11"/>
+      <c r="AA177" s="11"/>
+      <c r="AB177" s="11"/>
+      <c r="AC177" s="12"/>
+      <c r="AD177" s="13"/>
+      <c r="AE177" s="13"/>
+      <c r="AF177" s="13"/>
+      <c r="AG177" s="13"/>
+      <c r="AH177" s="13"/>
+      <c r="AI177" s="13"/>
+      <c r="AJ177" s="13"/>
+      <c r="AK177" s="13"/>
+    </row>
+    <row r="178" ht="12.75" customHeight="1">
+      <c r="A178" s="18"/>
+      <c r="B178" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75" customHeight="1">
+      <c r="A179" s="18"/>
+      <c r="B179" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75" customHeight="1">
+      <c r="A180" s="18"/>
+      <c r="B180" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" ht="12.75" customHeight="1">
+      <c r="B181" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
-      <c r="B177" s="20" t="s">
+    <row r="182" ht="12.75" customHeight="1">
+      <c r="B182" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
-      <c r="B178" s="20" t="s">
+    <row r="183" ht="12.75" customHeight="1">
+      <c r="B183" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
-      <c r="B179" s="20" t="s">
+    <row r="184" ht="13.5" customHeight="1">
+      <c r="A184" s="58" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="60" t="s">
+      <c r="AD184" s="58"/>
+      <c r="AE184" s="58"/>
+      <c r="AF184" s="58"/>
+      <c r="AG184" s="58"/>
+      <c r="AH184" s="58"/>
+      <c r="AI184" s="58"/>
+      <c r="AJ184" s="58"/>
+      <c r="AK184" s="58"/>
+    </row>
+    <row r="185" ht="13.5" customHeight="1">
+      <c r="AD185" s="58"/>
+      <c r="AE185" s="58"/>
+      <c r="AF185" s="58"/>
+      <c r="AG185" s="58"/>
+      <c r="AH185" s="58"/>
+      <c r="AI185" s="58"/>
+      <c r="AJ185" s="58"/>
+      <c r="AK185" s="58"/>
+    </row>
+    <row r="186" ht="13.5" customHeight="1">
+      <c r="AD186" s="58"/>
+      <c r="AE186" s="58"/>
+      <c r="AF186" s="58"/>
+      <c r="AG186" s="58"/>
+      <c r="AH186" s="58"/>
+      <c r="AI186" s="58"/>
+      <c r="AJ186" s="58"/>
+      <c r="AK186" s="58"/>
+    </row>
+    <row r="187" ht="13.5" customHeight="1">
+      <c r="AD187" s="58"/>
+      <c r="AE187" s="58"/>
+      <c r="AF187" s="58"/>
+      <c r="AG187" s="58"/>
+      <c r="AH187" s="58"/>
+      <c r="AI187" s="58"/>
+      <c r="AJ187" s="58"/>
+      <c r="AK187" s="58"/>
+    </row>
+    <row r="188" ht="12.75" customHeight="1">
+      <c r="A188" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AD180" s="60"/>
-      <c r="AE180" s="60"/>
-      <c r="AF180" s="60"/>
-      <c r="AG180" s="60"/>
-      <c r="AH180" s="60"/>
-      <c r="AI180" s="60"/>
-      <c r="AJ180" s="60"/>
-      <c r="AK180" s="60"/>
-    </row>
-    <row r="181" ht="13.5" customHeight="1">
-      <c r="AD181" s="60"/>
-      <c r="AE181" s="60"/>
-      <c r="AF181" s="60"/>
-      <c r="AG181" s="60"/>
-      <c r="AH181" s="60"/>
-      <c r="AI181" s="60"/>
-      <c r="AJ181" s="60"/>
-      <c r="AK181" s="60"/>
-    </row>
-    <row r="182" ht="13.5" customHeight="1">
-      <c r="AD182" s="60"/>
-      <c r="AE182" s="60"/>
-      <c r="AF182" s="60"/>
-      <c r="AG182" s="60"/>
-      <c r="AH182" s="60"/>
-      <c r="AI182" s="60"/>
-      <c r="AJ182" s="60"/>
-      <c r="AK182" s="60"/>
-    </row>
-    <row r="183" ht="13.5" customHeight="1">
-      <c r="AD183" s="60"/>
-      <c r="AE183" s="60"/>
-      <c r="AF183" s="60"/>
-      <c r="AG183" s="60"/>
-      <c r="AH183" s="60"/>
-      <c r="AI183" s="60"/>
-      <c r="AJ183" s="60"/>
-      <c r="AK183" s="60"/>
-    </row>
-    <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="60" t="s">
+      <c r="AD188" s="58"/>
+      <c r="AE188" s="58"/>
+      <c r="AF188" s="58"/>
+      <c r="AG188" s="58"/>
+      <c r="AH188" s="58"/>
+      <c r="AI188" s="58"/>
+      <c r="AJ188" s="58"/>
+      <c r="AK188" s="58"/>
+    </row>
+    <row r="189" ht="12.75" customHeight="1">
+      <c r="AD189" s="58"/>
+      <c r="AE189" s="58"/>
+      <c r="AF189" s="58"/>
+      <c r="AG189" s="58"/>
+      <c r="AH189" s="58"/>
+      <c r="AI189" s="58"/>
+      <c r="AJ189" s="58"/>
+      <c r="AK189" s="58"/>
+    </row>
+    <row r="190" ht="16.5" customHeight="1">
+      <c r="AD190" s="58"/>
+      <c r="AE190" s="58"/>
+      <c r="AF190" s="58"/>
+      <c r="AG190" s="58"/>
+      <c r="AH190" s="58"/>
+      <c r="AI190" s="58"/>
+      <c r="AJ190" s="58"/>
+      <c r="AK190" s="58"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="B191" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AD184" s="60"/>
-      <c r="AE184" s="60"/>
-      <c r="AF184" s="60"/>
-      <c r="AG184" s="60"/>
-      <c r="AH184" s="60"/>
-      <c r="AI184" s="60"/>
-      <c r="AJ184" s="60"/>
-      <c r="AK184" s="60"/>
-    </row>
-    <row r="185" ht="12.75" customHeight="1">
-      <c r="AD185" s="60"/>
-      <c r="AE185" s="60"/>
-      <c r="AF185" s="60"/>
-      <c r="AG185" s="60"/>
-      <c r="AH185" s="60"/>
-      <c r="AI185" s="60"/>
-      <c r="AJ185" s="60"/>
-      <c r="AK185" s="60"/>
-    </row>
-    <row r="186" ht="16.5" customHeight="1">
-      <c r="AD186" s="60"/>
-      <c r="AE186" s="60"/>
-      <c r="AF186" s="60"/>
-      <c r="AG186" s="60"/>
-      <c r="AH186" s="60"/>
-      <c r="AI186" s="60"/>
-      <c r="AJ186" s="60"/>
-      <c r="AK186" s="60"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="B187" s="10" t="s">
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="11"/>
+      <c r="S191" s="11"/>
+      <c r="T191" s="11"/>
+      <c r="U191" s="11"/>
+      <c r="V191" s="11"/>
+      <c r="W191" s="11"/>
+      <c r="X191" s="11"/>
+      <c r="Y191" s="11"/>
+      <c r="Z191" s="11"/>
+      <c r="AA191" s="11"/>
+      <c r="AB191" s="11"/>
+      <c r="AC191" s="12"/>
+      <c r="AD191" s="13"/>
+      <c r="AE191" s="13"/>
+      <c r="AF191" s="13"/>
+      <c r="AG191" s="13"/>
+      <c r="AH191" s="13"/>
+      <c r="AI191" s="13"/>
+      <c r="AJ191" s="13"/>
+      <c r="AK191" s="13"/>
+    </row>
+    <row r="192" ht="12.75" customHeight="1">
+      <c r="A192" s="18"/>
+      <c r="B192" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-      <c r="P187" s="11"/>
-      <c r="Q187" s="11"/>
-      <c r="R187" s="11"/>
-      <c r="S187" s="11"/>
-      <c r="T187" s="11"/>
-      <c r="U187" s="11"/>
-      <c r="V187" s="11"/>
-      <c r="W187" s="11"/>
-      <c r="X187" s="11"/>
-      <c r="Y187" s="11"/>
-      <c r="Z187" s="11"/>
-      <c r="AA187" s="11"/>
-      <c r="AB187" s="11"/>
-      <c r="AC187" s="12"/>
-      <c r="AD187" s="13"/>
-      <c r="AE187" s="13"/>
-      <c r="AF187" s="13"/>
-      <c r="AG187" s="13"/>
-      <c r="AH187" s="13"/>
-      <c r="AI187" s="13"/>
-      <c r="AJ187" s="13"/>
-      <c r="AK187" s="13"/>
-    </row>
-    <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="18"/>
-      <c r="B188" s="23" t="s">
+    </row>
+    <row r="193" ht="12.75" customHeight="1">
+      <c r="A193" s="18"/>
+      <c r="B193" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="18"/>
-      <c r="B189" s="23" t="s">
+    <row r="194" ht="3.75" customHeight="1">
+      <c r="A194" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="190" ht="3.75" customHeight="1">
-      <c r="A190" s="18" t="s">
+      <c r="B194" s="22"/>
+      <c r="E194" s="22"/>
+    </row>
+    <row r="195" ht="13.5" customHeight="1">
+      <c r="A195" s="18"/>
+      <c r="B195" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B190" s="22"/>
-      <c r="E190" s="22"/>
-    </row>
-    <row r="191" ht="13.5" customHeight="1">
-      <c r="A191" s="18"/>
-      <c r="B191" s="50" t="s">
+      <c r="AD195" s="48"/>
+      <c r="AE195" s="48"/>
+      <c r="AF195" s="48"/>
+      <c r="AG195" s="48"/>
+      <c r="AH195" s="48"/>
+      <c r="AI195" s="48"/>
+      <c r="AJ195" s="48"/>
+      <c r="AK195" s="48"/>
+    </row>
+    <row r="196" ht="13.5" customHeight="1">
+      <c r="A196" s="18"/>
+      <c r="AD196" s="48"/>
+      <c r="AE196" s="48"/>
+      <c r="AF196" s="48"/>
+      <c r="AG196" s="48"/>
+      <c r="AH196" s="48"/>
+      <c r="AI196" s="48"/>
+      <c r="AJ196" s="48"/>
+      <c r="AK196" s="48"/>
+    </row>
+    <row r="197" ht="13.5" customHeight="1">
+      <c r="A197" s="18"/>
+      <c r="AD197" s="48"/>
+      <c r="AE197" s="48"/>
+      <c r="AF197" s="48"/>
+      <c r="AG197" s="48"/>
+      <c r="AH197" s="48"/>
+      <c r="AI197" s="48"/>
+      <c r="AJ197" s="48"/>
+      <c r="AK197" s="48"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B198" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AD191" s="50"/>
-      <c r="AE191" s="50"/>
-      <c r="AF191" s="50"/>
-      <c r="AG191" s="50"/>
-      <c r="AH191" s="50"/>
-      <c r="AI191" s="50"/>
-      <c r="AJ191" s="50"/>
-      <c r="AK191" s="50"/>
-    </row>
-    <row r="192" ht="13.5" customHeight="1">
-      <c r="A192" s="18"/>
-      <c r="AD192" s="50"/>
-      <c r="AE192" s="50"/>
-      <c r="AF192" s="50"/>
-      <c r="AG192" s="50"/>
-      <c r="AH192" s="50"/>
-      <c r="AI192" s="50"/>
-      <c r="AJ192" s="50"/>
-      <c r="AK192" s="50"/>
-    </row>
-    <row r="193" ht="13.5" customHeight="1">
-      <c r="A193" s="18"/>
-      <c r="AD193" s="50"/>
-      <c r="AE193" s="50"/>
-      <c r="AF193" s="50"/>
-      <c r="AG193" s="50"/>
-      <c r="AH193" s="50"/>
-      <c r="AI193" s="50"/>
-      <c r="AJ193" s="50"/>
-      <c r="AK193" s="50"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="B194" s="10" t="s">
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="11"/>
+      <c r="U198" s="11"/>
+      <c r="V198" s="11"/>
+      <c r="W198" s="11"/>
+      <c r="X198" s="11"/>
+      <c r="Y198" s="11"/>
+      <c r="Z198" s="11"/>
+      <c r="AA198" s="11"/>
+      <c r="AB198" s="11"/>
+      <c r="AC198" s="12"/>
+      <c r="AD198" s="13"/>
+      <c r="AE198" s="13"/>
+      <c r="AF198" s="13"/>
+      <c r="AG198" s="13"/>
+      <c r="AH198" s="13"/>
+      <c r="AI198" s="13"/>
+      <c r="AJ198" s="13"/>
+      <c r="AK198" s="13"/>
+    </row>
+    <row r="199" ht="12.75" customHeight="1">
+      <c r="A199" s="18"/>
+      <c r="B199" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
-      <c r="Q194" s="11"/>
-      <c r="R194" s="11"/>
-      <c r="S194" s="11"/>
-      <c r="T194" s="11"/>
-      <c r="U194" s="11"/>
-      <c r="V194" s="11"/>
-      <c r="W194" s="11"/>
-      <c r="X194" s="11"/>
-      <c r="Y194" s="11"/>
-      <c r="Z194" s="11"/>
-      <c r="AA194" s="11"/>
-      <c r="AB194" s="11"/>
-      <c r="AC194" s="12"/>
-      <c r="AD194" s="13"/>
-      <c r="AE194" s="13"/>
-      <c r="AF194" s="13"/>
-      <c r="AG194" s="13"/>
-      <c r="AH194" s="13"/>
-      <c r="AI194" s="13"/>
-      <c r="AJ194" s="13"/>
-      <c r="AK194" s="13"/>
-    </row>
-    <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="18"/>
-      <c r="B195" s="22" t="s">
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="B200" s="71" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="73" t="s">
+      <c r="I200" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="I196" s="73" t="s">
+      <c r="S200" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="S196" s="73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="197" ht="3.75" customHeight="1">
-      <c r="A197" s="18"/>
-      <c r="B197" s="22"/>
-      <c r="E197" s="22"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="18"/>
-      <c r="B198" s="61"/>
-      <c r="C198" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I198" s="61"/>
-      <c r="J198" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="S198" s="61"/>
-      <c r="T198" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA198" s="74"/>
-      <c r="AB198" s="74"/>
-      <c r="AC198" s="74"/>
-      <c r="AD198" s="55"/>
-      <c r="AE198" s="55"/>
-      <c r="AF198" s="55"/>
-      <c r="AG198" s="55"/>
-      <c r="AH198" s="55"/>
-      <c r="AI198" s="55"/>
-      <c r="AJ198" s="55"/>
-      <c r="AK198" s="55"/>
-    </row>
-    <row r="199" ht="3.75" customHeight="1">
-      <c r="A199" s="18"/>
-      <c r="B199" s="22"/>
-      <c r="E199" s="22"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="18"/>
-      <c r="B200" s="61"/>
-      <c r="C200" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I200" s="61"/>
-      <c r="J200" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="S200" s="61"/>
-      <c r="T200" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA200" s="74"/>
-      <c r="AB200" s="74"/>
-      <c r="AC200" s="74"/>
-      <c r="AD200" s="55"/>
-      <c r="AE200" s="55"/>
-      <c r="AF200" s="55"/>
-      <c r="AG200" s="55"/>
-      <c r="AH200" s="55"/>
-      <c r="AI200" s="55"/>
-      <c r="AJ200" s="55"/>
-      <c r="AK200" s="55"/>
     </row>
     <row r="201" ht="3.75" customHeight="1">
       <c r="A201" s="18"/>
@@ -5431,29 +5367,29 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="18"/>
-      <c r="B202" s="61"/>
+      <c r="B202" s="59"/>
       <c r="C202" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I202" s="61"/>
+        <v>141</v>
+      </c>
+      <c r="I202" s="59"/>
       <c r="J202" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="S202" s="61"/>
+        <v>142</v>
+      </c>
+      <c r="S202" s="59"/>
       <c r="T202" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA202" s="74"/>
-      <c r="AB202" s="74"/>
-      <c r="AC202" s="74"/>
-      <c r="AD202" s="55"/>
-      <c r="AE202" s="55"/>
-      <c r="AF202" s="55"/>
-      <c r="AG202" s="55"/>
-      <c r="AH202" s="55"/>
-      <c r="AI202" s="55"/>
-      <c r="AJ202" s="55"/>
-      <c r="AK202" s="55"/>
+        <v>143</v>
+      </c>
+      <c r="AA202" s="72"/>
+      <c r="AB202" s="72"/>
+      <c r="AC202" s="72"/>
+      <c r="AD202" s="53"/>
+      <c r="AE202" s="53"/>
+      <c r="AF202" s="53"/>
+      <c r="AG202" s="53"/>
+      <c r="AH202" s="53"/>
+      <c r="AI202" s="53"/>
+      <c r="AJ202" s="53"/>
+      <c r="AK202" s="53"/>
     </row>
     <row r="203" ht="3.75" customHeight="1">
       <c r="A203" s="18"/>
@@ -5462,16 +5398,29 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="18"/>
-      <c r="B204" s="61"/>
+      <c r="B204" s="59"/>
       <c r="C204" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F204" s="20"/>
-      <c r="I204" s="61"/>
+        <v>144</v>
+      </c>
+      <c r="I204" s="59"/>
       <c r="J204" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="T204" s="23"/>
+        <v>145</v>
+      </c>
+      <c r="S204" s="59"/>
+      <c r="T204" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA204" s="72"/>
+      <c r="AB204" s="72"/>
+      <c r="AC204" s="72"/>
+      <c r="AD204" s="53"/>
+      <c r="AE204" s="53"/>
+      <c r="AF204" s="53"/>
+      <c r="AG204" s="53"/>
+      <c r="AH204" s="53"/>
+      <c r="AI204" s="53"/>
+      <c r="AJ204" s="53"/>
+      <c r="AK204" s="53"/>
     </row>
     <row r="205" ht="3.75" customHeight="1">
       <c r="A205" s="18"/>
@@ -5480,100 +5429,127 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="18"/>
-      <c r="B206" s="61"/>
-      <c r="C206" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G206" s="23"/>
-      <c r="J206" s="23"/>
-      <c r="O206" s="23"/>
+      <c r="B206" s="59"/>
+      <c r="C206" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I206" s="59"/>
+      <c r="J206" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="S206" s="59"/>
+      <c r="T206" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA206" s="72"/>
+      <c r="AB206" s="72"/>
+      <c r="AC206" s="72"/>
+      <c r="AD206" s="53"/>
+      <c r="AE206" s="53"/>
+      <c r="AF206" s="53"/>
+      <c r="AG206" s="53"/>
+      <c r="AH206" s="53"/>
+      <c r="AI206" s="53"/>
+      <c r="AJ206" s="53"/>
+      <c r="AK206" s="53"/>
     </row>
     <row r="207" ht="3.75" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="22"/>
       <c r="E207" s="22"/>
     </row>
-    <row r="208" ht="12.0" customHeight="1">
-      <c r="B208" s="60" t="s">
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="18"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F208" s="20"/>
+      <c r="I208" s="59"/>
+      <c r="J208" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="T208" s="23"/>
+    </row>
+    <row r="209" ht="3.75" customHeight="1">
+      <c r="A209" s="18"/>
+      <c r="B209" s="22"/>
+      <c r="E209" s="22"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="18"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G210" s="23"/>
+      <c r="J210" s="23"/>
+      <c r="O210" s="23"/>
+    </row>
+    <row r="211" ht="3.75" customHeight="1">
+      <c r="A211" s="18"/>
+      <c r="B211" s="22"/>
+      <c r="E211" s="22"/>
+    </row>
+    <row r="212" ht="12.0" customHeight="1">
+      <c r="B212" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD212" s="58"/>
+      <c r="AE212" s="58"/>
+      <c r="AF212" s="58"/>
+      <c r="AG212" s="58"/>
+      <c r="AH212" s="58"/>
+      <c r="AI212" s="58"/>
+      <c r="AJ212" s="58"/>
+      <c r="AK212" s="58"/>
+    </row>
+    <row r="213" ht="12.0" customHeight="1">
+      <c r="A213" s="40"/>
+      <c r="AD213" s="58"/>
+      <c r="AE213" s="58"/>
+      <c r="AF213" s="58"/>
+      <c r="AG213" s="58"/>
+      <c r="AH213" s="58"/>
+      <c r="AI213" s="58"/>
+      <c r="AJ213" s="58"/>
+      <c r="AK213" s="58"/>
+    </row>
+    <row r="214" ht="12.75" customHeight="1">
+      <c r="A214" s="18"/>
+      <c r="B214" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AD208" s="60"/>
-      <c r="AE208" s="60"/>
-      <c r="AF208" s="60"/>
-      <c r="AG208" s="60"/>
-      <c r="AH208" s="60"/>
-      <c r="AI208" s="60"/>
-      <c r="AJ208" s="60"/>
-      <c r="AK208" s="60"/>
-    </row>
-    <row r="209" ht="12.0" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="AD209" s="60"/>
-      <c r="AE209" s="60"/>
-      <c r="AF209" s="60"/>
-      <c r="AG209" s="60"/>
-      <c r="AH209" s="60"/>
-      <c r="AI209" s="60"/>
-      <c r="AJ209" s="60"/>
-      <c r="AK209" s="60"/>
-    </row>
-    <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="18"/>
-      <c r="B210" s="22" t="s">
+    </row>
+    <row r="215" ht="3.75" customHeight="1">
+      <c r="A215" s="15"/>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="A216" s="15"/>
+      <c r="B216" s="73"/>
+      <c r="C216" s="12"/>
+      <c r="E216" s="73"/>
+      <c r="F216" s="12"/>
+      <c r="H216" s="73"/>
+      <c r="I216" s="12"/>
+      <c r="K216" s="73"/>
+      <c r="L216" s="12"/>
+      <c r="N216" s="73"/>
+      <c r="O216" s="12"/>
+      <c r="Q216" s="73"/>
+      <c r="R216" s="12"/>
+      <c r="T216" s="73"/>
+      <c r="U216" s="12"/>
+      <c r="W216" s="73"/>
+      <c r="X216" s="12"/>
+    </row>
+    <row r="217" ht="3.75" customHeight="1">
+      <c r="D217" s="20"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="59"/>
+      <c r="D218" s="23" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="211" ht="3.75" customHeight="1">
-      <c r="A211" s="15"/>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="15"/>
-      <c r="B212" s="75"/>
-      <c r="C212" s="12"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="12"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="12"/>
-      <c r="K212" s="75"/>
-      <c r="L212" s="12"/>
-      <c r="N212" s="75"/>
-      <c r="O212" s="12"/>
-      <c r="Q212" s="75"/>
-      <c r="R212" s="12"/>
-      <c r="T212" s="75"/>
-      <c r="U212" s="12"/>
-      <c r="W212" s="75"/>
-      <c r="X212" s="12"/>
-    </row>
-    <row r="213" ht="3.75" customHeight="1">
-      <c r="D213" s="20"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="61"/>
-      <c r="D214" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="215" ht="3.75" customHeight="1">
-      <c r="A215" s="18"/>
-      <c r="B215" s="22"/>
-      <c r="E215" s="22"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="61"/>
-      <c r="D216" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="217" ht="3.75" customHeight="1">
-      <c r="A217" s="18"/>
-      <c r="B217" s="22"/>
-      <c r="E217" s="22"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="61"/>
-      <c r="D218" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="219" ht="3.75" customHeight="1">
@@ -5582,9 +5558,9 @@
       <c r="E219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="61"/>
+      <c r="C220" s="59"/>
       <c r="D220" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" ht="3.75" customHeight="1">
@@ -5593,9 +5569,9 @@
       <c r="E221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="61"/>
+      <c r="C222" s="59"/>
       <c r="D222" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" ht="3.75" customHeight="1">
@@ -5604,9 +5580,9 @@
       <c r="E223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="61"/>
+      <c r="C224" s="59"/>
       <c r="D224" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225" ht="3.75" customHeight="1">
@@ -5615,9 +5591,9 @@
       <c r="E225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="61"/>
+      <c r="C226" s="59"/>
       <c r="D226" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" ht="3.75" customHeight="1">
@@ -5626,96 +5602,66 @@
       <c r="E227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="61"/>
+      <c r="C228" s="59"/>
       <c r="D228" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="229" ht="3.75" customHeight="1">
+      <c r="A229" s="18"/>
+      <c r="B229" s="22"/>
+      <c r="E229" s="22"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="C230" s="59"/>
+      <c r="D230" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="231" ht="3.75" customHeight="1">
+      <c r="A231" s="18"/>
+      <c r="B231" s="22"/>
+      <c r="E231" s="22"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="C232" s="59"/>
+      <c r="D232" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="233" ht="12.75" customHeight="1">
+      <c r="A233" s="18"/>
+      <c r="D233" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="18"/>
-      <c r="D229" s="23" t="s">
+    <row r="234" ht="3.75" customHeight="1">
+      <c r="A234" s="18"/>
+      <c r="B234" s="22"/>
+      <c r="E234" s="22"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="59"/>
+      <c r="D235" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="230" ht="3.75" customHeight="1">
-      <c r="A230" s="18"/>
-      <c r="B230" s="22"/>
-      <c r="E230" s="22"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="61"/>
-      <c r="D231" s="23" t="s">
+    <row r="236" ht="12.0" customHeight="1">
+      <c r="A236" s="18"/>
+      <c r="D236" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="232" ht="12.0" customHeight="1">
-      <c r="A232" s="18"/>
-      <c r="D232" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="233" ht="12.0" customHeight="1">
-      <c r="A233" s="18"/>
-      <c r="D233" s="23"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
-      <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11"/>
-      <c r="R234" s="11"/>
-      <c r="S234" s="11"/>
-      <c r="T234" s="11"/>
-      <c r="U234" s="11"/>
-      <c r="V234" s="11"/>
-      <c r="W234" s="11"/>
-      <c r="X234" s="11"/>
-      <c r="Y234" s="11"/>
-      <c r="Z234" s="11"/>
-      <c r="AA234" s="11"/>
-      <c r="AB234" s="11"/>
-      <c r="AC234" s="12"/>
-      <c r="AD234" s="13"/>
-      <c r="AE234" s="13"/>
-      <c r="AF234" s="13"/>
-      <c r="AG234" s="13"/>
-      <c r="AH234" s="13"/>
-      <c r="AI234" s="13"/>
-      <c r="AJ234" s="13"/>
-      <c r="AK234" s="13"/>
-    </row>
-    <row r="235" ht="6.0" customHeight="1">
-      <c r="A235" s="20"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="20"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="76"/>
+    <row r="237" ht="12.0" customHeight="1">
+      <c r="A237" s="18"/>
+      <c r="D237" s="23"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="9">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -5754,1788 +5700,1828 @@
       <c r="AK238" s="13"/>
     </row>
     <row r="239" ht="6.0" customHeight="1">
-      <c r="A239" s="77"/>
+      <c r="A239" s="20"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="18"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="23" t="s">
+      <c r="A240" s="20"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="74"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="11"/>
+      <c r="S242" s="11"/>
+      <c r="T242" s="11"/>
+      <c r="U242" s="11"/>
+      <c r="V242" s="11"/>
+      <c r="W242" s="11"/>
+      <c r="X242" s="11"/>
+      <c r="Y242" s="11"/>
+      <c r="Z242" s="11"/>
+      <c r="AA242" s="11"/>
+      <c r="AB242" s="11"/>
+      <c r="AC242" s="12"/>
+      <c r="AD242" s="13"/>
+      <c r="AE242" s="13"/>
+      <c r="AF242" s="13"/>
+      <c r="AG242" s="13"/>
+      <c r="AH242" s="13"/>
+      <c r="AI242" s="13"/>
+      <c r="AJ242" s="13"/>
+      <c r="AK242" s="13"/>
+    </row>
+    <row r="243" ht="6.0" customHeight="1">
+      <c r="A243" s="75"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="18"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="245" ht="6.0" customHeight="1">
+      <c r="A245" s="75"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="B246" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="241" ht="6.0" customHeight="1">
-      <c r="A241" s="77"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="15" t="s">
+    <row r="247" ht="5.25" customHeight="1">
+      <c r="A247" s="75"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="C248" s="59"/>
+      <c r="D248" s="22" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="243" ht="5.25" customHeight="1">
-      <c r="A243" s="77"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="61"/>
-      <c r="D244" s="22" t="s">
+      <c r="K248" s="69">
+        <f>K160/2</f>
+        <v>0</v>
+      </c>
+      <c r="L248" s="51"/>
+      <c r="M248" s="51"/>
+      <c r="N248" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="K244" s="71">
-        <f>K156/2</f>
-        <v>0</v>
-      </c>
-      <c r="L244" s="53"/>
-      <c r="M244" s="53"/>
-      <c r="N244" s="21" t="s">
+    </row>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="A249" s="58" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="245" ht="14.25" customHeight="1">
-      <c r="A245" s="60" t="s">
+      <c r="AD249" s="58"/>
+      <c r="AE249" s="58"/>
+      <c r="AF249" s="58"/>
+      <c r="AG249" s="58"/>
+      <c r="AH249" s="58"/>
+      <c r="AI249" s="58"/>
+      <c r="AJ249" s="58"/>
+      <c r="AK249" s="58"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="AD250" s="58"/>
+      <c r="AE250" s="58"/>
+      <c r="AF250" s="58"/>
+      <c r="AG250" s="58"/>
+      <c r="AH250" s="58"/>
+      <c r="AI250" s="58"/>
+      <c r="AJ250" s="58"/>
+      <c r="AK250" s="58"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="AD251" s="58"/>
+      <c r="AE251" s="58"/>
+      <c r="AF251" s="58"/>
+      <c r="AG251" s="58"/>
+      <c r="AH251" s="58"/>
+      <c r="AI251" s="58"/>
+      <c r="AJ251" s="58"/>
+      <c r="AK251" s="58"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="AD252" s="58"/>
+      <c r="AE252" s="58"/>
+      <c r="AF252" s="58"/>
+      <c r="AG252" s="58"/>
+      <c r="AH252" s="58"/>
+      <c r="AI252" s="58"/>
+      <c r="AJ252" s="58"/>
+      <c r="AK252" s="58"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="B253" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AD245" s="60"/>
-      <c r="AE245" s="60"/>
-      <c r="AF245" s="60"/>
-      <c r="AG245" s="60"/>
-      <c r="AH245" s="60"/>
-      <c r="AI245" s="60"/>
-      <c r="AJ245" s="60"/>
-      <c r="AK245" s="60"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="AD246" s="60"/>
-      <c r="AE246" s="60"/>
-      <c r="AF246" s="60"/>
-      <c r="AG246" s="60"/>
-      <c r="AH246" s="60"/>
-      <c r="AI246" s="60"/>
-      <c r="AJ246" s="60"/>
-      <c r="AK246" s="60"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="AD247" s="60"/>
-      <c r="AE247" s="60"/>
-      <c r="AF247" s="60"/>
-      <c r="AG247" s="60"/>
-      <c r="AH247" s="60"/>
-      <c r="AI247" s="60"/>
-      <c r="AJ247" s="60"/>
-      <c r="AK247" s="60"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="AD248" s="60"/>
-      <c r="AE248" s="60"/>
-      <c r="AF248" s="60"/>
-      <c r="AG248" s="60"/>
-      <c r="AH248" s="60"/>
-      <c r="AI248" s="60"/>
-      <c r="AJ248" s="60"/>
-      <c r="AK248" s="60"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="B249" s="10" t="s">
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
+      <c r="R253" s="11"/>
+      <c r="S253" s="11"/>
+      <c r="T253" s="11"/>
+      <c r="U253" s="11"/>
+      <c r="V253" s="11"/>
+      <c r="W253" s="11"/>
+      <c r="X253" s="11"/>
+      <c r="Y253" s="11"/>
+      <c r="Z253" s="11"/>
+      <c r="AA253" s="11"/>
+      <c r="AB253" s="11"/>
+      <c r="AC253" s="12"/>
+      <c r="AD253" s="13"/>
+      <c r="AE253" s="13"/>
+      <c r="AF253" s="13"/>
+      <c r="AG253" s="13"/>
+      <c r="AH253" s="13"/>
+      <c r="AI253" s="13"/>
+      <c r="AJ253" s="13"/>
+      <c r="AK253" s="13"/>
+    </row>
+    <row r="254" ht="3.0" customHeight="1">
+      <c r="A254" s="14"/>
+    </row>
+    <row r="255" ht="14.25" customHeight="1">
+      <c r="A255" s="18"/>
+      <c r="B255" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="11"/>
-      <c r="M249" s="11"/>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11"/>
-      <c r="P249" s="11"/>
-      <c r="Q249" s="11"/>
-      <c r="R249" s="11"/>
-      <c r="S249" s="11"/>
-      <c r="T249" s="11"/>
-      <c r="U249" s="11"/>
-      <c r="V249" s="11"/>
-      <c r="W249" s="11"/>
-      <c r="X249" s="11"/>
-      <c r="Y249" s="11"/>
-      <c r="Z249" s="11"/>
-      <c r="AA249" s="11"/>
-      <c r="AB249" s="11"/>
-      <c r="AC249" s="12"/>
-      <c r="AD249" s="13"/>
-      <c r="AE249" s="13"/>
-      <c r="AF249" s="13"/>
-      <c r="AG249" s="13"/>
-      <c r="AH249" s="13"/>
-      <c r="AI249" s="13"/>
-      <c r="AJ249" s="13"/>
-      <c r="AK249" s="13"/>
-    </row>
-    <row r="250" ht="3.0" customHeight="1">
-      <c r="A250" s="14"/>
-    </row>
-    <row r="251" ht="14.25" customHeight="1">
-      <c r="A251" s="18"/>
-      <c r="B251" s="60" t="s">
+      <c r="AD255" s="58"/>
+      <c r="AE255" s="58"/>
+      <c r="AF255" s="58"/>
+      <c r="AG255" s="58"/>
+      <c r="AH255" s="58"/>
+      <c r="AI255" s="58"/>
+      <c r="AJ255" s="58"/>
+      <c r="AK255" s="58"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="76"/>
+      <c r="AD256" s="58"/>
+      <c r="AE256" s="58"/>
+      <c r="AF256" s="58"/>
+      <c r="AG256" s="58"/>
+      <c r="AH256" s="58"/>
+      <c r="AI256" s="58"/>
+      <c r="AJ256" s="58"/>
+      <c r="AK256" s="58"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="76"/>
+      <c r="AD257" s="58"/>
+      <c r="AE257" s="58"/>
+      <c r="AF257" s="58"/>
+      <c r="AG257" s="58"/>
+      <c r="AH257" s="58"/>
+      <c r="AI257" s="58"/>
+      <c r="AJ257" s="58"/>
+      <c r="AK257" s="58"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="C258" s="59"/>
+      <c r="D258" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="AD251" s="60"/>
-      <c r="AE251" s="60"/>
-      <c r="AF251" s="60"/>
-      <c r="AG251" s="60"/>
-      <c r="AH251" s="60"/>
-      <c r="AI251" s="60"/>
-      <c r="AJ251" s="60"/>
-      <c r="AK251" s="60"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="78"/>
-      <c r="AD252" s="60"/>
-      <c r="AE252" s="60"/>
-      <c r="AF252" s="60"/>
-      <c r="AG252" s="60"/>
-      <c r="AH252" s="60"/>
-      <c r="AI252" s="60"/>
-      <c r="AJ252" s="60"/>
-      <c r="AK252" s="60"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="78"/>
-      <c r="AD253" s="60"/>
-      <c r="AE253" s="60"/>
-      <c r="AF253" s="60"/>
-      <c r="AG253" s="60"/>
-      <c r="AH253" s="60"/>
-      <c r="AI253" s="60"/>
-      <c r="AJ253" s="60"/>
-      <c r="AK253" s="60"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="61"/>
-      <c r="D254" s="23" t="s">
+    </row>
+    <row r="259" ht="3.75" customHeight="1">
+      <c r="A259" s="20"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="C260" s="59"/>
+      <c r="D260" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="255" ht="3.75" customHeight="1">
-      <c r="A255" s="20"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="61"/>
-      <c r="D256" s="23" t="s">
+    <row r="261" ht="3.75" customHeight="1">
+      <c r="A261" s="20"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B262" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="257" ht="3.75" customHeight="1">
-      <c r="A257" s="20"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="B258" s="10" t="s">
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="11"/>
+      <c r="S262" s="11"/>
+      <c r="T262" s="11"/>
+      <c r="U262" s="11"/>
+      <c r="V262" s="11"/>
+      <c r="W262" s="11"/>
+      <c r="X262" s="11"/>
+      <c r="Y262" s="11"/>
+      <c r="Z262" s="11"/>
+      <c r="AA262" s="11"/>
+      <c r="AB262" s="11"/>
+      <c r="AC262" s="12"/>
+      <c r="AD262" s="13"/>
+      <c r="AE262" s="13"/>
+      <c r="AF262" s="13"/>
+      <c r="AG262" s="13"/>
+      <c r="AH262" s="13"/>
+      <c r="AI262" s="13"/>
+      <c r="AJ262" s="13"/>
+      <c r="AK262" s="13"/>
+    </row>
+    <row r="263" ht="3.0" customHeight="1">
+      <c r="A263" s="20"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="18"/>
+      <c r="B264" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11"/>
-      <c r="K258" s="11"/>
-      <c r="L258" s="11"/>
-      <c r="M258" s="11"/>
-      <c r="N258" s="11"/>
-      <c r="O258" s="11"/>
-      <c r="P258" s="11"/>
-      <c r="Q258" s="11"/>
-      <c r="R258" s="11"/>
-      <c r="S258" s="11"/>
-      <c r="T258" s="11"/>
-      <c r="U258" s="11"/>
-      <c r="V258" s="11"/>
-      <c r="W258" s="11"/>
-      <c r="X258" s="11"/>
-      <c r="Y258" s="11"/>
-      <c r="Z258" s="11"/>
-      <c r="AA258" s="11"/>
-      <c r="AB258" s="11"/>
-      <c r="AC258" s="12"/>
-      <c r="AD258" s="13"/>
-      <c r="AE258" s="13"/>
-      <c r="AF258" s="13"/>
-      <c r="AG258" s="13"/>
-      <c r="AH258" s="13"/>
-      <c r="AI258" s="13"/>
-      <c r="AJ258" s="13"/>
-      <c r="AK258" s="13"/>
-    </row>
-    <row r="259" ht="3.0" customHeight="1">
-      <c r="A259" s="20"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="18"/>
-      <c r="B260" s="60" t="s">
+      <c r="AD264" s="58"/>
+      <c r="AE264" s="58"/>
+      <c r="AF264" s="58"/>
+      <c r="AG264" s="58"/>
+      <c r="AH264" s="58"/>
+      <c r="AI264" s="58"/>
+      <c r="AJ264" s="58"/>
+      <c r="AK264" s="58"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="15"/>
+      <c r="AD265" s="58"/>
+      <c r="AE265" s="58"/>
+      <c r="AF265" s="58"/>
+      <c r="AG265" s="58"/>
+      <c r="AH265" s="58"/>
+      <c r="AI265" s="58"/>
+      <c r="AJ265" s="58"/>
+      <c r="AK265" s="58"/>
+    </row>
+    <row r="266" ht="3.75" customHeight="1">
+      <c r="A266" s="75"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="AD260" s="60"/>
-      <c r="AE260" s="60"/>
-      <c r="AF260" s="60"/>
-      <c r="AG260" s="60"/>
-      <c r="AH260" s="60"/>
-      <c r="AI260" s="60"/>
-      <c r="AJ260" s="60"/>
-      <c r="AK260" s="60"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="15"/>
-      <c r="AD261" s="60"/>
-      <c r="AE261" s="60"/>
-      <c r="AF261" s="60"/>
-      <c r="AG261" s="60"/>
-      <c r="AH261" s="60"/>
-      <c r="AI261" s="60"/>
-      <c r="AJ261" s="60"/>
-      <c r="AK261" s="60"/>
-    </row>
-    <row r="262" ht="3.75" customHeight="1">
-      <c r="A262" s="77"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="15" t="s">
+      <c r="R267" s="59"/>
+      <c r="S267" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="R263" s="61"/>
-      <c r="S263" s="23" t="s">
+    </row>
+    <row r="268" ht="6.0" customHeight="1">
+      <c r="A268" s="15"/>
+      <c r="S268" s="23"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="R269" s="59"/>
+      <c r="S269" s="23" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="264" ht="6.0" customHeight="1">
-      <c r="A264" s="15"/>
-      <c r="S264" s="23"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="R265" s="61"/>
-      <c r="S265" s="23" t="s">
+      <c r="V269" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="V265" s="21" t="s">
+    </row>
+    <row r="270" ht="3.75" customHeight="1">
+      <c r="A270" s="75"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="266" ht="3.75" customHeight="1">
-      <c r="A266" s="77"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="9" t="s">
+      <c r="B271" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="11"/>
+      <c r="U271" s="11"/>
+      <c r="V271" s="11"/>
+      <c r="W271" s="11"/>
+      <c r="X271" s="11"/>
+      <c r="Y271" s="11"/>
+      <c r="Z271" s="11"/>
+      <c r="AA271" s="11"/>
+      <c r="AB271" s="11"/>
+      <c r="AC271" s="12"/>
+      <c r="AD271" s="13"/>
+      <c r="AE271" s="13"/>
+      <c r="AF271" s="13"/>
+      <c r="AG271" s="13"/>
+      <c r="AH271" s="13"/>
+      <c r="AI271" s="13"/>
+      <c r="AJ271" s="13"/>
+      <c r="AK271" s="13"/>
+    </row>
+    <row r="272" ht="3.75" customHeight="1">
+      <c r="A272" s="20"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="18"/>
+      <c r="B273" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="11"/>
-      <c r="J267" s="11"/>
-      <c r="K267" s="11"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="11"/>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="11"/>
-      <c r="Q267" s="11"/>
-      <c r="R267" s="11"/>
-      <c r="S267" s="11"/>
-      <c r="T267" s="11"/>
-      <c r="U267" s="11"/>
-      <c r="V267" s="11"/>
-      <c r="W267" s="11"/>
-      <c r="X267" s="11"/>
-      <c r="Y267" s="11"/>
-      <c r="Z267" s="11"/>
-      <c r="AA267" s="11"/>
-      <c r="AB267" s="11"/>
-      <c r="AC267" s="12"/>
-      <c r="AD267" s="13"/>
-      <c r="AE267" s="13"/>
-      <c r="AF267" s="13"/>
-      <c r="AG267" s="13"/>
-      <c r="AH267" s="13"/>
-      <c r="AI267" s="13"/>
-      <c r="AJ267" s="13"/>
-      <c r="AK267" s="13"/>
-    </row>
-    <row r="268" ht="3.75" customHeight="1">
-      <c r="A268" s="20"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="18"/>
-      <c r="B269" s="50" t="s">
+      <c r="AD273" s="48"/>
+      <c r="AE273" s="48"/>
+      <c r="AF273" s="48"/>
+      <c r="AG273" s="48"/>
+      <c r="AH273" s="48"/>
+      <c r="AI273" s="48"/>
+      <c r="AJ273" s="48"/>
+      <c r="AK273" s="48"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="20"/>
+      <c r="AD274" s="48"/>
+      <c r="AE274" s="48"/>
+      <c r="AF274" s="48"/>
+      <c r="AG274" s="48"/>
+      <c r="AH274" s="48"/>
+      <c r="AI274" s="48"/>
+      <c r="AJ274" s="48"/>
+      <c r="AK274" s="48"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="20"/>
+      <c r="AD275" s="48"/>
+      <c r="AE275" s="48"/>
+      <c r="AF275" s="48"/>
+      <c r="AG275" s="48"/>
+      <c r="AH275" s="48"/>
+      <c r="AI275" s="48"/>
+      <c r="AJ275" s="48"/>
+      <c r="AK275" s="48"/>
+    </row>
+    <row r="276" ht="3.75" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="A277" s="15"/>
+      <c r="B277" s="73"/>
+      <c r="C277" s="12"/>
+      <c r="E277" s="73"/>
+      <c r="F277" s="12"/>
+      <c r="H277" s="73"/>
+      <c r="I277" s="12"/>
+      <c r="K277" s="73"/>
+      <c r="L277" s="12"/>
+      <c r="N277" s="73"/>
+      <c r="O277" s="12"/>
+      <c r="Q277" s="73"/>
+      <c r="R277" s="12"/>
+      <c r="T277" s="73"/>
+      <c r="U277" s="12"/>
+      <c r="W277" s="73"/>
+      <c r="X277" s="12"/>
+    </row>
+    <row r="278" ht="3.75" customHeight="1">
+      <c r="A278" s="15"/>
+      <c r="B278" s="77"/>
+      <c r="C278" s="77"/>
+      <c r="E278" s="77"/>
+      <c r="F278" s="77"/>
+      <c r="H278" s="77"/>
+      <c r="I278" s="77"/>
+      <c r="K278" s="77"/>
+      <c r="L278" s="77"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="18"/>
+      <c r="B279" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="AD269" s="50"/>
-      <c r="AE269" s="50"/>
-      <c r="AF269" s="50"/>
-      <c r="AG269" s="50"/>
-      <c r="AH269" s="50"/>
-      <c r="AI269" s="50"/>
-      <c r="AJ269" s="50"/>
-      <c r="AK269" s="50"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="20"/>
-      <c r="AD270" s="50"/>
-      <c r="AE270" s="50"/>
-      <c r="AF270" s="50"/>
-      <c r="AG270" s="50"/>
-      <c r="AH270" s="50"/>
-      <c r="AI270" s="50"/>
-      <c r="AJ270" s="50"/>
-      <c r="AK270" s="50"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="20"/>
-      <c r="AD271" s="50"/>
-      <c r="AE271" s="50"/>
-      <c r="AF271" s="50"/>
-      <c r="AG271" s="50"/>
-      <c r="AH271" s="50"/>
-      <c r="AI271" s="50"/>
-      <c r="AJ271" s="50"/>
-      <c r="AK271" s="50"/>
-    </row>
-    <row r="272" ht="3.75" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1">
-      <c r="A273" s="15"/>
-      <c r="B273" s="75"/>
-      <c r="C273" s="12"/>
-      <c r="E273" s="75"/>
-      <c r="F273" s="12"/>
-      <c r="H273" s="75"/>
-      <c r="I273" s="12"/>
-      <c r="K273" s="75"/>
-      <c r="L273" s="12"/>
-      <c r="N273" s="75"/>
-      <c r="O273" s="12"/>
-      <c r="Q273" s="75"/>
-      <c r="R273" s="12"/>
-      <c r="T273" s="75"/>
-      <c r="U273" s="12"/>
-      <c r="W273" s="75"/>
-      <c r="X273" s="12"/>
-    </row>
-    <row r="274" ht="3.75" customHeight="1">
-      <c r="A274" s="15"/>
-      <c r="B274" s="79"/>
-      <c r="C274" s="79"/>
-      <c r="E274" s="79"/>
-      <c r="F274" s="79"/>
-      <c r="H274" s="79"/>
-      <c r="I274" s="79"/>
-      <c r="K274" s="79"/>
-      <c r="L274" s="79"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="18"/>
-      <c r="B275" s="23" t="s">
+    </row>
+    <row r="280" ht="3.75" customHeight="1">
+      <c r="A280" s="20"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11"/>
+      <c r="S281" s="11"/>
+      <c r="T281" s="11"/>
+      <c r="U281" s="11"/>
+      <c r="V281" s="11"/>
+      <c r="W281" s="11"/>
+      <c r="X281" s="11"/>
+      <c r="Y281" s="11"/>
+      <c r="Z281" s="11"/>
+      <c r="AA281" s="11"/>
+      <c r="AB281" s="11"/>
+      <c r="AC281" s="12"/>
+      <c r="AD281" s="13"/>
+      <c r="AE281" s="13"/>
+      <c r="AF281" s="13"/>
+      <c r="AG281" s="13"/>
+      <c r="AH281" s="13"/>
+      <c r="AI281" s="13"/>
+      <c r="AJ281" s="13"/>
+      <c r="AK281" s="13"/>
+    </row>
+    <row r="282" ht="3.75" customHeight="1">
+      <c r="A282" s="20"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="78"/>
+      <c r="B283" s="48" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="276" ht="3.75" customHeight="1">
-      <c r="A276" s="20"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="11"/>
-      <c r="J277" s="11"/>
-      <c r="K277" s="11"/>
-      <c r="L277" s="11"/>
-      <c r="M277" s="11"/>
-      <c r="N277" s="11"/>
-      <c r="O277" s="11"/>
-      <c r="P277" s="11"/>
-      <c r="Q277" s="11"/>
-      <c r="R277" s="11"/>
-      <c r="S277" s="11"/>
-      <c r="T277" s="11"/>
-      <c r="U277" s="11"/>
-      <c r="V277" s="11"/>
-      <c r="W277" s="11"/>
-      <c r="X277" s="11"/>
-      <c r="Y277" s="11"/>
-      <c r="Z277" s="11"/>
-      <c r="AA277" s="11"/>
-      <c r="AB277" s="11"/>
-      <c r="AC277" s="12"/>
-      <c r="AD277" s="13"/>
-      <c r="AE277" s="13"/>
-      <c r="AF277" s="13"/>
-      <c r="AG277" s="13"/>
-      <c r="AH277" s="13"/>
-      <c r="AI277" s="13"/>
-      <c r="AJ277" s="13"/>
-      <c r="AK277" s="13"/>
-    </row>
-    <row r="278" ht="3.75" customHeight="1">
-      <c r="A278" s="20"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="80"/>
-      <c r="B279" s="50" t="s">
+      <c r="AD283" s="48"/>
+      <c r="AE283" s="48"/>
+      <c r="AF283" s="48"/>
+      <c r="AG283" s="48"/>
+      <c r="AH283" s="48"/>
+      <c r="AI283" s="48"/>
+      <c r="AJ283" s="48"/>
+      <c r="AK283" s="48"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="18"/>
+      <c r="AD284" s="48"/>
+      <c r="AE284" s="48"/>
+      <c r="AF284" s="48"/>
+      <c r="AG284" s="48"/>
+      <c r="AH284" s="48"/>
+      <c r="AI284" s="48"/>
+      <c r="AJ284" s="48"/>
+      <c r="AK284" s="48"/>
+    </row>
+    <row r="285" ht="3.75" customHeight="1">
+      <c r="A285" s="20"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="18"/>
+      <c r="B286" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="AD279" s="50"/>
-      <c r="AE279" s="50"/>
-      <c r="AF279" s="50"/>
-      <c r="AG279" s="50"/>
-      <c r="AH279" s="50"/>
-      <c r="AI279" s="50"/>
-      <c r="AJ279" s="50"/>
-      <c r="AK279" s="50"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="18"/>
-      <c r="AD280" s="50"/>
-      <c r="AE280" s="50"/>
-      <c r="AF280" s="50"/>
-      <c r="AG280" s="50"/>
-      <c r="AH280" s="50"/>
-      <c r="AI280" s="50"/>
-      <c r="AJ280" s="50"/>
-      <c r="AK280" s="50"/>
-    </row>
-    <row r="281" ht="3.75" customHeight="1">
-      <c r="A281" s="20"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="18"/>
-      <c r="B282" s="23" t="s">
+    </row>
+    <row r="287" ht="3.75" customHeight="1">
+      <c r="A287" s="20"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="B288" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="283" ht="3.75" customHeight="1">
-      <c r="A283" s="20"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="23" t="s">
+      <c r="D288" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D284" s="50" t="s">
+      <c r="AD288" s="48"/>
+      <c r="AE288" s="48"/>
+      <c r="AF288" s="48"/>
+      <c r="AG288" s="48"/>
+      <c r="AH288" s="48"/>
+      <c r="AI288" s="48"/>
+      <c r="AJ288" s="48"/>
+      <c r="AK288" s="48"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="20"/>
+      <c r="AD289" s="48"/>
+      <c r="AE289" s="48"/>
+      <c r="AF289" s="48"/>
+      <c r="AG289" s="48"/>
+      <c r="AH289" s="48"/>
+      <c r="AI289" s="48"/>
+      <c r="AJ289" s="48"/>
+      <c r="AK289" s="48"/>
+    </row>
+    <row r="290" ht="3.75" customHeight="1">
+      <c r="A290" s="20"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="B291" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="AD284" s="50"/>
-      <c r="AE284" s="50"/>
-      <c r="AF284" s="50"/>
-      <c r="AG284" s="50"/>
-      <c r="AH284" s="50"/>
-      <c r="AI284" s="50"/>
-      <c r="AJ284" s="50"/>
-      <c r="AK284" s="50"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="20"/>
-      <c r="AD285" s="50"/>
-      <c r="AE285" s="50"/>
-      <c r="AF285" s="50"/>
-      <c r="AG285" s="50"/>
-      <c r="AH285" s="50"/>
-      <c r="AI285" s="50"/>
-      <c r="AJ285" s="50"/>
-      <c r="AK285" s="50"/>
-    </row>
-    <row r="286" ht="3.75" customHeight="1">
-      <c r="A286" s="20"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="23" t="s">
+      <c r="D291" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D287" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="288" ht="3.75" customHeight="1">
-      <c r="A288" s="20"/>
-    </row>
-    <row r="289" ht="14.25" customHeight="1">
-      <c r="A289" s="18"/>
-      <c r="B289" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD289" s="50"/>
-      <c r="AE289" s="50"/>
-      <c r="AF289" s="50"/>
-      <c r="AG289" s="50"/>
-      <c r="AH289" s="50"/>
-      <c r="AI289" s="50"/>
-      <c r="AJ289" s="50"/>
-      <c r="AK289" s="50"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="20"/>
-      <c r="AD290" s="50"/>
-      <c r="AE290" s="50"/>
-      <c r="AF290" s="50"/>
-      <c r="AG290" s="50"/>
-      <c r="AH290" s="50"/>
-      <c r="AI290" s="50"/>
-      <c r="AJ290" s="50"/>
-      <c r="AK290" s="50"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="20"/>
-      <c r="AD291" s="50"/>
-      <c r="AE291" s="50"/>
-      <c r="AF291" s="50"/>
-      <c r="AG291" s="50"/>
-      <c r="AH291" s="50"/>
-      <c r="AI291" s="50"/>
-      <c r="AJ291" s="50"/>
-      <c r="AK291" s="50"/>
     </row>
     <row r="292" ht="3.75" customHeight="1">
       <c r="A292" s="20"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="18"/>
-      <c r="B293" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD293" s="50"/>
-      <c r="AE293" s="50"/>
-      <c r="AF293" s="50"/>
-      <c r="AG293" s="50"/>
-      <c r="AH293" s="50"/>
-      <c r="AI293" s="50"/>
-      <c r="AJ293" s="50"/>
-      <c r="AK293" s="50"/>
+      <c r="B293" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD293" s="48"/>
+      <c r="AE293" s="48"/>
+      <c r="AF293" s="48"/>
+      <c r="AG293" s="48"/>
+      <c r="AH293" s="48"/>
+      <c r="AI293" s="48"/>
+      <c r="AJ293" s="48"/>
+      <c r="AK293" s="48"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="20"/>
-      <c r="AD294" s="50"/>
-      <c r="AE294" s="50"/>
-      <c r="AF294" s="50"/>
-      <c r="AG294" s="50"/>
-      <c r="AH294" s="50"/>
-      <c r="AI294" s="50"/>
-      <c r="AJ294" s="50"/>
-      <c r="AK294" s="50"/>
-    </row>
-    <row r="295" ht="3.75" customHeight="1">
+      <c r="AD294" s="48"/>
+      <c r="AE294" s="48"/>
+      <c r="AF294" s="48"/>
+      <c r="AG294" s="48"/>
+      <c r="AH294" s="48"/>
+      <c r="AI294" s="48"/>
+      <c r="AJ294" s="48"/>
+      <c r="AK294" s="48"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="20"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="9">
+      <c r="AD295" s="48"/>
+      <c r="AE295" s="48"/>
+      <c r="AF295" s="48"/>
+      <c r="AG295" s="48"/>
+      <c r="AH295" s="48"/>
+      <c r="AI295" s="48"/>
+      <c r="AJ295" s="48"/>
+      <c r="AK295" s="48"/>
+    </row>
+    <row r="296" ht="3.75" customHeight="1">
+      <c r="A296" s="20"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="18"/>
+      <c r="B297" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD297" s="48"/>
+      <c r="AE297" s="48"/>
+      <c r="AF297" s="48"/>
+      <c r="AG297" s="48"/>
+      <c r="AH297" s="48"/>
+      <c r="AI297" s="48"/>
+      <c r="AJ297" s="48"/>
+      <c r="AK297" s="48"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="20"/>
+      <c r="AD298" s="48"/>
+      <c r="AE298" s="48"/>
+      <c r="AF298" s="48"/>
+      <c r="AG298" s="48"/>
+      <c r="AH298" s="48"/>
+      <c r="AI298" s="48"/>
+      <c r="AJ298" s="48"/>
+      <c r="AK298" s="48"/>
+    </row>
+    <row r="299" ht="3.75" customHeight="1">
+      <c r="A299" s="20"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="9">
         <v>19.0</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B300" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="11"/>
+      <c r="U300" s="11"/>
+      <c r="V300" s="11"/>
+      <c r="W300" s="11"/>
+      <c r="X300" s="11"/>
+      <c r="Y300" s="11"/>
+      <c r="Z300" s="11"/>
+      <c r="AA300" s="11"/>
+      <c r="AB300" s="11"/>
+      <c r="AC300" s="12"/>
+      <c r="AD300" s="13"/>
+      <c r="AE300" s="13"/>
+      <c r="AF300" s="13"/>
+      <c r="AG300" s="13"/>
+      <c r="AH300" s="13"/>
+      <c r="AI300" s="13"/>
+      <c r="AJ300" s="13"/>
+      <c r="AK300" s="13"/>
+    </row>
+    <row r="301" ht="3.75" customHeight="1">
+      <c r="A301" s="78"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="18"/>
+      <c r="B302" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
-      <c r="F296" s="11"/>
-      <c r="G296" s="11"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="11"/>
-      <c r="J296" s="11"/>
-      <c r="K296" s="11"/>
-      <c r="L296" s="11"/>
-      <c r="M296" s="11"/>
-      <c r="N296" s="11"/>
-      <c r="O296" s="11"/>
-      <c r="P296" s="11"/>
-      <c r="Q296" s="11"/>
-      <c r="R296" s="11"/>
-      <c r="S296" s="11"/>
-      <c r="T296" s="11"/>
-      <c r="U296" s="11"/>
-      <c r="V296" s="11"/>
-      <c r="W296" s="11"/>
-      <c r="X296" s="11"/>
-      <c r="Y296" s="11"/>
-      <c r="Z296" s="11"/>
-      <c r="AA296" s="11"/>
-      <c r="AB296" s="11"/>
-      <c r="AC296" s="12"/>
-      <c r="AD296" s="13"/>
-      <c r="AE296" s="13"/>
-      <c r="AF296" s="13"/>
-      <c r="AG296" s="13"/>
-      <c r="AH296" s="13"/>
-      <c r="AI296" s="13"/>
-      <c r="AJ296" s="13"/>
-      <c r="AK296" s="13"/>
-    </row>
-    <row r="297" ht="3.75" customHeight="1">
-      <c r="A297" s="80"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="18"/>
-      <c r="B298" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="18"/>
-      <c r="B299" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="300" ht="3.75" customHeight="1">
-      <c r="A300" s="20"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="18"/>
-      <c r="B301" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N301" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="15"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="18"/>
-      <c r="B303" s="61"/>
-      <c r="C303" s="23" t="s">
+      <c r="B303" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="304" ht="3.75" customHeight="1">
+      <c r="A304" s="20"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="18"/>
+      <c r="B305" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N305" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="15"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="18"/>
+      <c r="B307" s="59"/>
+      <c r="C307" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N307" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="N303" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="18"/>
-      <c r="N304" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="305" ht="3.75" customHeight="1">
-      <c r="A305" s="18"/>
-      <c r="N305" s="23"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="18"/>
-      <c r="B306" s="61"/>
-      <c r="C306" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="N306" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="307" ht="3.75" customHeight="1">
-      <c r="A307" s="18"/>
-      <c r="C307" s="23"/>
-      <c r="N307" s="23"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="18"/>
-      <c r="B308" s="61"/>
-      <c r="C308" s="23" t="s">
-        <v>206</v>
-      </c>
       <c r="N308" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="309" ht="3.75" customHeight="1">
       <c r="A309" s="18"/>
-      <c r="C309" s="23"/>
       <c r="N309" s="23"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="18"/>
-      <c r="B310" s="61"/>
+      <c r="B310" s="59"/>
       <c r="C310" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N310" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="311" ht="3.75" customHeight="1">
-      <c r="A311" s="45"/>
+      <c r="A311" s="18"/>
+      <c r="C311" s="23"/>
+      <c r="N311" s="23"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="B312" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
-      <c r="I312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" s="11"/>
-      <c r="L312" s="11"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="11"/>
-      <c r="O312" s="11"/>
-      <c r="P312" s="11"/>
-      <c r="Q312" s="11"/>
-      <c r="R312" s="11"/>
-      <c r="S312" s="11"/>
-      <c r="T312" s="11"/>
-      <c r="U312" s="11"/>
-      <c r="V312" s="11"/>
-      <c r="W312" s="11"/>
-      <c r="X312" s="11"/>
-      <c r="Y312" s="11"/>
-      <c r="Z312" s="11"/>
-      <c r="AA312" s="11"/>
-      <c r="AB312" s="11"/>
-      <c r="AC312" s="12"/>
-      <c r="AD312" s="13"/>
-      <c r="AE312" s="13"/>
-      <c r="AF312" s="13"/>
-      <c r="AG312" s="13"/>
-      <c r="AH312" s="13"/>
-      <c r="AI312" s="13"/>
-      <c r="AJ312" s="13"/>
-      <c r="AK312" s="13"/>
+      <c r="A312" s="18"/>
+      <c r="B312" s="59"/>
+      <c r="C312" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N312" s="23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="313" ht="3.75" customHeight="1">
-      <c r="A313" s="45"/>
+      <c r="A313" s="18"/>
+      <c r="C313" s="23"/>
+      <c r="N313" s="23"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="18"/>
-      <c r="B314" s="50" t="s">
+      <c r="B314" s="59"/>
+      <c r="C314" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="N314" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="315" ht="3.75" customHeight="1">
+      <c r="A315" s="43"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="11"/>
+      <c r="O316" s="11"/>
+      <c r="P316" s="11"/>
+      <c r="Q316" s="11"/>
+      <c r="R316" s="11"/>
+      <c r="S316" s="11"/>
+      <c r="T316" s="11"/>
+      <c r="U316" s="11"/>
+      <c r="V316" s="11"/>
+      <c r="W316" s="11"/>
+      <c r="X316" s="11"/>
+      <c r="Y316" s="11"/>
+      <c r="Z316" s="11"/>
+      <c r="AA316" s="11"/>
+      <c r="AB316" s="11"/>
+      <c r="AC316" s="12"/>
+      <c r="AD316" s="13"/>
+      <c r="AE316" s="13"/>
+      <c r="AF316" s="13"/>
+      <c r="AG316" s="13"/>
+      <c r="AH316" s="13"/>
+      <c r="AI316" s="13"/>
+      <c r="AJ316" s="13"/>
+      <c r="AK316" s="13"/>
+    </row>
+    <row r="317" ht="3.75" customHeight="1">
+      <c r="A317" s="43"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="18"/>
+      <c r="B318" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD318" s="48"/>
+      <c r="AE318" s="48"/>
+      <c r="AF318" s="48"/>
+      <c r="AG318" s="48"/>
+      <c r="AH318" s="48"/>
+      <c r="AI318" s="48"/>
+      <c r="AJ318" s="48"/>
+      <c r="AK318" s="48"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="20"/>
+      <c r="AD319" s="48"/>
+      <c r="AE319" s="48"/>
+      <c r="AF319" s="48"/>
+      <c r="AG319" s="48"/>
+      <c r="AH319" s="48"/>
+      <c r="AI319" s="48"/>
+      <c r="AJ319" s="48"/>
+      <c r="AK319" s="48"/>
+    </row>
+    <row r="320" ht="3.75" customHeight="1">
+      <c r="A320" s="75"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B321" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AD314" s="50"/>
-      <c r="AE314" s="50"/>
-      <c r="AF314" s="50"/>
-      <c r="AG314" s="50"/>
-      <c r="AH314" s="50"/>
-      <c r="AI314" s="50"/>
-      <c r="AJ314" s="50"/>
-      <c r="AK314" s="50"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="20"/>
-      <c r="AD315" s="50"/>
-      <c r="AE315" s="50"/>
-      <c r="AF315" s="50"/>
-      <c r="AG315" s="50"/>
-      <c r="AH315" s="50"/>
-      <c r="AI315" s="50"/>
-      <c r="AJ315" s="50"/>
-      <c r="AK315" s="50"/>
-    </row>
-    <row r="316" ht="3.75" customHeight="1">
-      <c r="A316" s="77"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="9">
-        <v>21.0</v>
-      </c>
-      <c r="B317" s="10" t="s">
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="11"/>
+      <c r="R321" s="11"/>
+      <c r="S321" s="11"/>
+      <c r="T321" s="11"/>
+      <c r="U321" s="11"/>
+      <c r="V321" s="11"/>
+      <c r="W321" s="11"/>
+      <c r="X321" s="11"/>
+      <c r="Y321" s="11"/>
+      <c r="Z321" s="11"/>
+      <c r="AA321" s="11"/>
+      <c r="AB321" s="11"/>
+      <c r="AC321" s="12"/>
+      <c r="AD321" s="13"/>
+      <c r="AE321" s="13"/>
+      <c r="AF321" s="13"/>
+      <c r="AG321" s="13"/>
+      <c r="AH321" s="13"/>
+      <c r="AI321" s="13"/>
+      <c r="AJ321" s="13"/>
+      <c r="AK321" s="13"/>
+    </row>
+    <row r="322" ht="3.75" customHeight="1">
+      <c r="A322" s="20"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="18"/>
+      <c r="B323" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C317" s="11"/>
-      <c r="D317" s="11"/>
-      <c r="E317" s="11"/>
-      <c r="F317" s="11"/>
-      <c r="G317" s="11"/>
-      <c r="H317" s="11"/>
-      <c r="I317" s="11"/>
-      <c r="J317" s="11"/>
-      <c r="K317" s="11"/>
-      <c r="L317" s="11"/>
-      <c r="M317" s="11"/>
-      <c r="N317" s="11"/>
-      <c r="O317" s="11"/>
-      <c r="P317" s="11"/>
-      <c r="Q317" s="11"/>
-      <c r="R317" s="11"/>
-      <c r="S317" s="11"/>
-      <c r="T317" s="11"/>
-      <c r="U317" s="11"/>
-      <c r="V317" s="11"/>
-      <c r="W317" s="11"/>
-      <c r="X317" s="11"/>
-      <c r="Y317" s="11"/>
-      <c r="Z317" s="11"/>
-      <c r="AA317" s="11"/>
-      <c r="AB317" s="11"/>
-      <c r="AC317" s="12"/>
-      <c r="AD317" s="13"/>
-      <c r="AE317" s="13"/>
-      <c r="AF317" s="13"/>
-      <c r="AG317" s="13"/>
-      <c r="AH317" s="13"/>
-      <c r="AI317" s="13"/>
-      <c r="AJ317" s="13"/>
-      <c r="AK317" s="13"/>
-    </row>
-    <row r="318" ht="3.75" customHeight="1">
-      <c r="A318" s="20"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="18"/>
-      <c r="B319" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD319" s="50"/>
-      <c r="AE319" s="50"/>
-      <c r="AF319" s="50"/>
-      <c r="AG319" s="50"/>
-      <c r="AH319" s="50"/>
-      <c r="AI319" s="50"/>
-      <c r="AJ319" s="50"/>
-      <c r="AK319" s="50"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="18"/>
-      <c r="AD320" s="50"/>
-      <c r="AE320" s="50"/>
-      <c r="AF320" s="50"/>
-      <c r="AG320" s="50"/>
-      <c r="AH320" s="50"/>
-      <c r="AI320" s="50"/>
-      <c r="AJ320" s="50"/>
-      <c r="AK320" s="50"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="18"/>
-      <c r="B321" s="50"/>
-      <c r="C321" s="50"/>
-      <c r="D321" s="50"/>
-      <c r="E321" s="50"/>
-      <c r="F321" s="50"/>
-      <c r="G321" s="50"/>
-      <c r="H321" s="50"/>
-      <c r="I321" s="50"/>
-      <c r="J321" s="50"/>
-      <c r="K321" s="50"/>
-      <c r="L321" s="50"/>
-      <c r="M321" s="50"/>
-      <c r="N321" s="50"/>
-      <c r="O321" s="50"/>
-      <c r="P321" s="50"/>
-      <c r="Q321" s="50"/>
-      <c r="R321" s="50"/>
-      <c r="S321" s="50"/>
-      <c r="T321" s="50"/>
-      <c r="U321" s="50"/>
-      <c r="V321" s="50"/>
-      <c r="W321" s="50"/>
-      <c r="X321" s="50"/>
-      <c r="Y321" s="50"/>
-      <c r="Z321" s="50"/>
-      <c r="AA321" s="50"/>
-      <c r="AB321" s="50"/>
-      <c r="AC321" s="50"/>
-      <c r="AD321" s="50"/>
-      <c r="AE321" s="50"/>
-      <c r="AF321" s="50"/>
-      <c r="AG321" s="50"/>
-      <c r="AH321" s="50"/>
-      <c r="AI321" s="50"/>
-      <c r="AJ321" s="50"/>
-      <c r="AK321" s="50"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
-      <c r="F322" s="11"/>
-      <c r="G322" s="11"/>
-      <c r="H322" s="11"/>
-      <c r="I322" s="11"/>
-      <c r="J322" s="11"/>
-      <c r="K322" s="11"/>
-      <c r="L322" s="11"/>
-      <c r="M322" s="11"/>
-      <c r="N322" s="11"/>
-      <c r="O322" s="11"/>
-      <c r="P322" s="11"/>
-      <c r="Q322" s="11"/>
-      <c r="R322" s="11"/>
-      <c r="S322" s="11"/>
-      <c r="T322" s="11"/>
-      <c r="U322" s="11"/>
-      <c r="V322" s="11"/>
-      <c r="W322" s="11"/>
-      <c r="X322" s="11"/>
-      <c r="Y322" s="11"/>
-      <c r="Z322" s="11"/>
-      <c r="AA322" s="11"/>
-      <c r="AB322" s="11"/>
-      <c r="AC322" s="12"/>
-      <c r="AD322" s="13"/>
-      <c r="AE322" s="13"/>
-      <c r="AF322" s="13"/>
-      <c r="AG322" s="13"/>
-      <c r="AH322" s="13"/>
-      <c r="AI322" s="13"/>
-      <c r="AJ322" s="13"/>
-      <c r="AK322" s="13"/>
-    </row>
-    <row r="323" ht="3.75" customHeight="1">
-      <c r="A323" s="15"/>
+      <c r="AD323" s="48"/>
+      <c r="AE323" s="48"/>
+      <c r="AF323" s="48"/>
+      <c r="AG323" s="48"/>
+      <c r="AH323" s="48"/>
+      <c r="AI323" s="48"/>
+      <c r="AJ323" s="48"/>
+      <c r="AK323" s="48"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="18"/>
-      <c r="B324" s="60" t="s">
+      <c r="AD324" s="48"/>
+      <c r="AE324" s="48"/>
+      <c r="AF324" s="48"/>
+      <c r="AG324" s="48"/>
+      <c r="AH324" s="48"/>
+      <c r="AI324" s="48"/>
+      <c r="AJ324" s="48"/>
+      <c r="AK324" s="48"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="18"/>
+      <c r="B325" s="48"/>
+      <c r="C325" s="48"/>
+      <c r="D325" s="48"/>
+      <c r="E325" s="48"/>
+      <c r="F325" s="48"/>
+      <c r="G325" s="48"/>
+      <c r="H325" s="48"/>
+      <c r="I325" s="48"/>
+      <c r="J325" s="48"/>
+      <c r="K325" s="48"/>
+      <c r="L325" s="48"/>
+      <c r="M325" s="48"/>
+      <c r="N325" s="48"/>
+      <c r="O325" s="48"/>
+      <c r="P325" s="48"/>
+      <c r="Q325" s="48"/>
+      <c r="R325" s="48"/>
+      <c r="S325" s="48"/>
+      <c r="T325" s="48"/>
+      <c r="U325" s="48"/>
+      <c r="V325" s="48"/>
+      <c r="W325" s="48"/>
+      <c r="X325" s="48"/>
+      <c r="Y325" s="48"/>
+      <c r="Z325" s="48"/>
+      <c r="AA325" s="48"/>
+      <c r="AB325" s="48"/>
+      <c r="AC325" s="48"/>
+      <c r="AD325" s="48"/>
+      <c r="AE325" s="48"/>
+      <c r="AF325" s="48"/>
+      <c r="AG325" s="48"/>
+      <c r="AH325" s="48"/>
+      <c r="AI325" s="48"/>
+      <c r="AJ325" s="48"/>
+      <c r="AK325" s="48"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="44">
+        <v>22.0</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="11"/>
+      <c r="N326" s="11"/>
+      <c r="O326" s="11"/>
+      <c r="P326" s="11"/>
+      <c r="Q326" s="11"/>
+      <c r="R326" s="11"/>
+      <c r="S326" s="11"/>
+      <c r="T326" s="11"/>
+      <c r="U326" s="11"/>
+      <c r="V326" s="11"/>
+      <c r="W326" s="11"/>
+      <c r="X326" s="11"/>
+      <c r="Y326" s="11"/>
+      <c r="Z326" s="11"/>
+      <c r="AA326" s="11"/>
+      <c r="AB326" s="11"/>
+      <c r="AC326" s="12"/>
+      <c r="AD326" s="13"/>
+      <c r="AE326" s="13"/>
+      <c r="AF326" s="13"/>
+      <c r="AG326" s="13"/>
+      <c r="AH326" s="13"/>
+      <c r="AI326" s="13"/>
+      <c r="AJ326" s="13"/>
+      <c r="AK326" s="13"/>
+    </row>
+    <row r="327" ht="3.75" customHeight="1">
+      <c r="A327" s="15"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="18"/>
+      <c r="B328" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD328" s="58"/>
+      <c r="AE328" s="58"/>
+      <c r="AF328" s="58"/>
+      <c r="AG328" s="58"/>
+      <c r="AH328" s="58"/>
+      <c r="AI328" s="58"/>
+      <c r="AJ328" s="58"/>
+      <c r="AK328" s="58"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="15"/>
+      <c r="AD329" s="58"/>
+      <c r="AE329" s="58"/>
+      <c r="AF329" s="58"/>
+      <c r="AG329" s="58"/>
+      <c r="AH329" s="58"/>
+      <c r="AI329" s="58"/>
+      <c r="AJ329" s="58"/>
+      <c r="AK329" s="58"/>
+    </row>
+    <row r="330" ht="3.75" customHeight="1">
+      <c r="A330" s="15"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="18"/>
+      <c r="B331" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AD324" s="60"/>
-      <c r="AE324" s="60"/>
-      <c r="AF324" s="60"/>
-      <c r="AG324" s="60"/>
-      <c r="AH324" s="60"/>
-      <c r="AI324" s="60"/>
-      <c r="AJ324" s="60"/>
-      <c r="AK324" s="60"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="15"/>
-      <c r="AD325" s="60"/>
-      <c r="AE325" s="60"/>
-      <c r="AF325" s="60"/>
-      <c r="AG325" s="60"/>
-      <c r="AH325" s="60"/>
-      <c r="AI325" s="60"/>
-      <c r="AJ325" s="60"/>
-      <c r="AK325" s="60"/>
-    </row>
-    <row r="326" ht="3.75" customHeight="1">
-      <c r="A326" s="15"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="18"/>
-      <c r="B327" s="22" t="s">
+    </row>
+    <row r="332" ht="3.75" customHeight="1">
+      <c r="A332" s="79"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="18"/>
+      <c r="B333" s="80" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="328" ht="3.75" customHeight="1">
-      <c r="A328" s="81"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="18"/>
-      <c r="B329" s="82" t="s">
+      <c r="C333" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C329" s="23" t="s">
+    </row>
+    <row r="334" ht="3.75" customHeight="1">
+      <c r="A334" s="20"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="B335" s="73"/>
+      <c r="C335" s="12"/>
+      <c r="E335" s="59"/>
+      <c r="F335" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="330" ht="3.75" customHeight="1">
-      <c r="A330" s="20"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="75"/>
-      <c r="C331" s="12"/>
-      <c r="E331" s="61"/>
-      <c r="F331" s="23" t="s">
+    <row r="336" ht="3.75" customHeight="1">
+      <c r="B336" s="77"/>
+      <c r="C336" s="77"/>
+      <c r="F336" s="23"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="E337" s="59"/>
+      <c r="F337" s="23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="332" ht="3.75" customHeight="1">
-      <c r="B332" s="79"/>
-      <c r="C332" s="79"/>
-      <c r="F332" s="23"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="61"/>
-      <c r="F333" s="23" t="s">
+    <row r="338" ht="3.75" customHeight="1">
+      <c r="F338" s="23"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="E339" s="59"/>
+      <c r="F339" s="23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="334" ht="3.75" customHeight="1">
-      <c r="F334" s="23"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="61"/>
-      <c r="F335" s="23" t="s">
+    <row r="340" ht="3.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="18"/>
+      <c r="B341" s="81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="336" ht="3.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="18"/>
-      <c r="B337" s="83" t="s">
+    <row r="342" ht="3.75" customHeight="1">
+      <c r="A342" s="18"/>
+      <c r="B342" s="82"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="18"/>
+      <c r="B343" s="81" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="338" ht="3.75" customHeight="1">
-      <c r="A338" s="18"/>
-      <c r="B338" s="84"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="18"/>
-      <c r="B339" s="83" t="s">
+    <row r="344" ht="3.75" customHeight="1">
+      <c r="A344" s="20"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="B345" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="340" ht="3.75" customHeight="1">
-      <c r="A340" s="20"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="23" t="s">
+    <row r="346" ht="3.75" customHeight="1">
+      <c r="A346" s="23"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="C347" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="342" ht="3.75" customHeight="1">
-      <c r="A342" s="23"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="23" t="s">
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="C348" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="20" t="s">
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="C349" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="20" t="s">
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="C350" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="20" t="s">
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="83"/>
+    </row>
+    <row r="352" ht="14.25" customHeight="1">
+      <c r="A352" s="20"/>
+      <c r="B352" s="80" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="85"/>
-    </row>
-    <row r="348" ht="14.25" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="82" t="s">
+      <c r="C352" s="73"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="49"/>
+      <c r="F352" s="73"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="49"/>
+      <c r="I352" s="73"/>
+      <c r="J352" s="12"/>
+      <c r="K352" s="49"/>
+      <c r="L352" s="73"/>
+      <c r="M352" s="12"/>
+      <c r="N352" s="49"/>
+      <c r="O352" s="73"/>
+      <c r="P352" s="12"/>
+      <c r="Q352" s="48"/>
+      <c r="R352" s="73"/>
+      <c r="S352" s="12"/>
+      <c r="T352" s="48"/>
+      <c r="U352" s="73"/>
+      <c r="V352" s="12"/>
+      <c r="X352" s="73"/>
+      <c r="Y352" s="12"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="20"/>
+      <c r="F353" s="49"/>
+      <c r="G353" s="49"/>
+      <c r="H353" s="49"/>
+      <c r="I353" s="49"/>
+      <c r="J353" s="49"/>
+      <c r="K353" s="49"/>
+      <c r="L353" s="49"/>
+      <c r="M353" s="49"/>
+      <c r="N353" s="49"/>
+      <c r="O353" s="48"/>
+      <c r="P353" s="48"/>
+      <c r="Q353" s="48"/>
+      <c r="R353" s="48"/>
+      <c r="S353" s="48"/>
+      <c r="T353" s="48"/>
+      <c r="U353" s="48"/>
+      <c r="V353" s="48"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="C354" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C348" s="75"/>
-      <c r="D348" s="12"/>
-      <c r="E348" s="51"/>
-      <c r="F348" s="75"/>
-      <c r="G348" s="12"/>
-      <c r="H348" s="51"/>
-      <c r="I348" s="75"/>
-      <c r="J348" s="12"/>
-      <c r="K348" s="51"/>
-      <c r="L348" s="75"/>
-      <c r="M348" s="12"/>
-      <c r="N348" s="51"/>
-      <c r="O348" s="75"/>
-      <c r="P348" s="12"/>
-      <c r="Q348" s="50"/>
-      <c r="R348" s="75"/>
-      <c r="S348" s="12"/>
-      <c r="T348" s="50"/>
-      <c r="U348" s="75"/>
-      <c r="V348" s="12"/>
-      <c r="X348" s="75"/>
-      <c r="Y348" s="12"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="20"/>
-      <c r="F349" s="51"/>
-      <c r="G349" s="51"/>
-      <c r="H349" s="51"/>
-      <c r="I349" s="51"/>
-      <c r="J349" s="51"/>
-      <c r="K349" s="51"/>
-      <c r="L349" s="51"/>
-      <c r="M349" s="51"/>
-      <c r="N349" s="51"/>
-      <c r="O349" s="50"/>
-      <c r="P349" s="50"/>
-      <c r="Q349" s="50"/>
-      <c r="R349" s="50"/>
-      <c r="S349" s="50"/>
-      <c r="T349" s="50"/>
-      <c r="U349" s="50"/>
-      <c r="V349" s="50"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="50" t="s">
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="18"/>
+      <c r="B355" s="80"/>
+      <c r="R355" s="77"/>
+      <c r="S355" s="77"/>
+      <c r="T355" s="48"/>
+      <c r="U355" s="77"/>
+      <c r="V355" s="77"/>
+      <c r="X355" s="77"/>
+      <c r="Y355" s="77"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="18"/>
+      <c r="B356" s="80"/>
+      <c r="C356" s="77"/>
+      <c r="D356" s="77"/>
+      <c r="E356" s="49"/>
+      <c r="F356" s="77"/>
+      <c r="G356" s="77"/>
+      <c r="H356" s="49"/>
+      <c r="I356" s="77"/>
+      <c r="J356" s="77"/>
+      <c r="K356" s="49"/>
+      <c r="L356" s="77"/>
+      <c r="M356" s="77"/>
+      <c r="O356" s="77"/>
+      <c r="P356" s="77"/>
+      <c r="Q356" s="48"/>
+      <c r="R356" s="77"/>
+      <c r="S356" s="77"/>
+      <c r="T356" s="48"/>
+      <c r="U356" s="77"/>
+      <c r="V356" s="77"/>
+      <c r="X356" s="77"/>
+      <c r="Y356" s="77"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="18"/>
+      <c r="B357" s="80" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="18"/>
-      <c r="B351" s="82"/>
-      <c r="R351" s="79"/>
-      <c r="S351" s="79"/>
-      <c r="T351" s="50"/>
-      <c r="U351" s="79"/>
-      <c r="V351" s="79"/>
-      <c r="X351" s="79"/>
-      <c r="Y351" s="79"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="18"/>
-      <c r="B352" s="82"/>
-      <c r="C352" s="79"/>
-      <c r="D352" s="79"/>
-      <c r="E352" s="51"/>
-      <c r="F352" s="79"/>
-      <c r="G352" s="79"/>
-      <c r="H352" s="51"/>
-      <c r="I352" s="79"/>
-      <c r="J352" s="79"/>
-      <c r="K352" s="51"/>
-      <c r="L352" s="79"/>
-      <c r="M352" s="79"/>
-      <c r="O352" s="79"/>
-      <c r="P352" s="79"/>
-      <c r="Q352" s="50"/>
-      <c r="R352" s="79"/>
-      <c r="S352" s="79"/>
-      <c r="T352" s="50"/>
-      <c r="U352" s="79"/>
-      <c r="V352" s="79"/>
-      <c r="X352" s="79"/>
-      <c r="Y352" s="79"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="18"/>
-      <c r="B353" s="82" t="s">
+      <c r="C357" s="73"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="49"/>
+      <c r="F357" s="73"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="49"/>
+      <c r="I357" s="73"/>
+      <c r="J357" s="12"/>
+      <c r="K357" s="49"/>
+      <c r="L357" s="73"/>
+      <c r="M357" s="12"/>
+      <c r="O357" s="73"/>
+      <c r="P357" s="12"/>
+      <c r="Q357" s="48"/>
+      <c r="R357" s="73"/>
+      <c r="S357" s="12"/>
+      <c r="T357" s="48"/>
+      <c r="U357" s="73"/>
+      <c r="V357" s="12"/>
+      <c r="X357" s="73"/>
+      <c r="Y357" s="12"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="20"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="C353" s="75"/>
-      <c r="D353" s="12"/>
-      <c r="E353" s="51"/>
-      <c r="F353" s="75"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="51"/>
-      <c r="I353" s="75"/>
-      <c r="J353" s="12"/>
-      <c r="K353" s="51"/>
-      <c r="L353" s="75"/>
-      <c r="M353" s="12"/>
-      <c r="O353" s="75"/>
-      <c r="P353" s="12"/>
-      <c r="Q353" s="50"/>
-      <c r="R353" s="75"/>
-      <c r="S353" s="12"/>
-      <c r="T353" s="50"/>
-      <c r="U353" s="75"/>
-      <c r="V353" s="12"/>
-      <c r="X353" s="75"/>
-      <c r="Y353" s="12"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="20"/>
-      <c r="B355" s="23"/>
-      <c r="C355" s="86" t="s">
+      <c r="R359" s="48"/>
+      <c r="S359" s="48"/>
+      <c r="T359" s="48"/>
+      <c r="U359" s="48"/>
+      <c r="V359" s="48"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="C361" s="84"/>
+      <c r="D361" s="84"/>
+      <c r="E361" s="84"/>
+      <c r="F361" s="84"/>
+      <c r="G361" s="84"/>
+      <c r="H361" s="84"/>
+      <c r="I361" s="84"/>
+      <c r="J361" s="84"/>
+      <c r="K361" s="84"/>
+      <c r="L361" s="84"/>
+      <c r="M361" s="84"/>
+      <c r="N361" s="84"/>
+      <c r="O361" s="84"/>
+      <c r="P361" s="84"/>
+      <c r="Q361" s="84"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="85"/>
+      <c r="B362" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="R355" s="50"/>
-      <c r="S355" s="50"/>
-      <c r="T355" s="50"/>
-      <c r="U355" s="50"/>
-      <c r="V355" s="50"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="86"/>
-      <c r="D357" s="86"/>
-      <c r="E357" s="86"/>
-      <c r="F357" s="86"/>
-      <c r="G357" s="86"/>
-      <c r="H357" s="86"/>
-      <c r="I357" s="86"/>
-      <c r="J357" s="86"/>
-      <c r="K357" s="86"/>
-      <c r="L357" s="86"/>
-      <c r="M357" s="86"/>
-      <c r="N357" s="86"/>
-      <c r="O357" s="86"/>
-      <c r="P357" s="86"/>
-      <c r="Q357" s="86"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="87"/>
-      <c r="B358" s="88" t="s">
+      <c r="C362" s="87"/>
+      <c r="D362" s="87"/>
+      <c r="E362" s="87"/>
+      <c r="F362" s="87"/>
+      <c r="G362" s="87"/>
+      <c r="H362" s="87"/>
+      <c r="I362" s="87"/>
+      <c r="J362" s="87"/>
+      <c r="K362" s="87"/>
+      <c r="L362" s="87"/>
+      <c r="M362" s="87"/>
+      <c r="N362" s="87"/>
+      <c r="O362" s="87"/>
+      <c r="P362" s="87"/>
+      <c r="Q362" s="87"/>
+      <c r="R362" s="87"/>
+      <c r="S362" s="87"/>
+      <c r="T362" s="87"/>
+      <c r="U362" s="87"/>
+      <c r="V362" s="87"/>
+      <c r="W362" s="87"/>
+      <c r="X362" s="87"/>
+      <c r="Y362" s="87"/>
+      <c r="Z362" s="87"/>
+      <c r="AA362" s="87"/>
+      <c r="AB362" s="87"/>
+      <c r="AC362" s="88"/>
+      <c r="AD362" s="89"/>
+      <c r="AE362" s="89"/>
+      <c r="AF362" s="89"/>
+      <c r="AG362" s="89"/>
+      <c r="AH362" s="89"/>
+      <c r="AI362" s="89"/>
+      <c r="AJ362" s="89"/>
+      <c r="AK362" s="89"/>
+    </row>
+    <row r="363" ht="7.5" customHeight="1">
+      <c r="A363" s="90"/>
+      <c r="AC363" s="91"/>
+      <c r="AD363" s="53"/>
+      <c r="AE363" s="53"/>
+      <c r="AF363" s="53"/>
+      <c r="AG363" s="53"/>
+      <c r="AH363" s="53"/>
+      <c r="AI363" s="53"/>
+      <c r="AJ363" s="53"/>
+      <c r="AK363" s="53"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="92"/>
+      <c r="B364" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="C358" s="89"/>
-      <c r="D358" s="89"/>
-      <c r="E358" s="89"/>
-      <c r="F358" s="89"/>
-      <c r="G358" s="89"/>
-      <c r="H358" s="89"/>
-      <c r="I358" s="89"/>
-      <c r="J358" s="89"/>
-      <c r="K358" s="89"/>
-      <c r="L358" s="89"/>
-      <c r="M358" s="89"/>
-      <c r="N358" s="89"/>
-      <c r="O358" s="89"/>
-      <c r="P358" s="89"/>
-      <c r="Q358" s="89"/>
-      <c r="R358" s="89"/>
-      <c r="S358" s="89"/>
-      <c r="T358" s="89"/>
-      <c r="U358" s="89"/>
-      <c r="V358" s="89"/>
-      <c r="W358" s="89"/>
-      <c r="X358" s="89"/>
-      <c r="Y358" s="89"/>
-      <c r="Z358" s="89"/>
-      <c r="AA358" s="89"/>
-      <c r="AB358" s="89"/>
-      <c r="AC358" s="90"/>
-      <c r="AD358" s="91"/>
-      <c r="AE358" s="91"/>
-      <c r="AF358" s="91"/>
-      <c r="AG358" s="91"/>
-      <c r="AH358" s="91"/>
-      <c r="AI358" s="91"/>
-      <c r="AJ358" s="91"/>
-      <c r="AK358" s="91"/>
-    </row>
-    <row r="359" ht="7.5" customHeight="1">
-      <c r="A359" s="92"/>
-      <c r="AC359" s="93"/>
-      <c r="AD359" s="55"/>
-      <c r="AE359" s="55"/>
-      <c r="AF359" s="55"/>
-      <c r="AG359" s="55"/>
-      <c r="AH359" s="55"/>
-      <c r="AI359" s="55"/>
-      <c r="AJ359" s="55"/>
-      <c r="AK359" s="55"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="94"/>
-      <c r="B360" s="95" t="s">
+      <c r="AC364" s="94"/>
+      <c r="AD364" s="93"/>
+      <c r="AE364" s="93"/>
+      <c r="AF364" s="93"/>
+      <c r="AG364" s="93"/>
+      <c r="AH364" s="93"/>
+      <c r="AI364" s="93"/>
+      <c r="AJ364" s="93"/>
+      <c r="AK364" s="93"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="92"/>
+      <c r="AC365" s="94"/>
+      <c r="AD365" s="93"/>
+      <c r="AE365" s="93"/>
+      <c r="AF365" s="93"/>
+      <c r="AG365" s="93"/>
+      <c r="AH365" s="93"/>
+      <c r="AI365" s="93"/>
+      <c r="AJ365" s="93"/>
+      <c r="AK365" s="93"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="95"/>
+      <c r="B366" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="AC360" s="96"/>
-      <c r="AD360" s="95"/>
-      <c r="AE360" s="95"/>
-      <c r="AF360" s="95"/>
-      <c r="AG360" s="95"/>
-      <c r="AH360" s="95"/>
-      <c r="AI360" s="95"/>
-      <c r="AJ360" s="95"/>
-      <c r="AK360" s="95"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="94"/>
-      <c r="AC361" s="96"/>
-      <c r="AD361" s="95"/>
-      <c r="AE361" s="95"/>
-      <c r="AF361" s="95"/>
-      <c r="AG361" s="95"/>
-      <c r="AH361" s="95"/>
-      <c r="AI361" s="95"/>
-      <c r="AJ361" s="95"/>
-      <c r="AK361" s="95"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="97"/>
-      <c r="B362" s="98" t="s">
+      <c r="AC366" s="91"/>
+      <c r="AD366" s="53"/>
+      <c r="AE366" s="53"/>
+      <c r="AF366" s="53"/>
+      <c r="AG366" s="53"/>
+      <c r="AH366" s="53"/>
+      <c r="AI366" s="53"/>
+      <c r="AJ366" s="53"/>
+      <c r="AK366" s="53"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="95"/>
+      <c r="B367" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="AC362" s="93"/>
-      <c r="AD362" s="55"/>
-      <c r="AE362" s="55"/>
-      <c r="AF362" s="55"/>
-      <c r="AG362" s="55"/>
-      <c r="AH362" s="55"/>
-      <c r="AI362" s="55"/>
-      <c r="AJ362" s="55"/>
-      <c r="AK362" s="55"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="97"/>
-      <c r="B363" s="99" t="s">
+      <c r="AC367" s="94"/>
+      <c r="AD367" s="97"/>
+      <c r="AE367" s="97"/>
+      <c r="AF367" s="97"/>
+      <c r="AG367" s="97"/>
+      <c r="AH367" s="97"/>
+      <c r="AI367" s="97"/>
+      <c r="AJ367" s="97"/>
+      <c r="AK367" s="97"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="95"/>
+      <c r="AC368" s="94"/>
+      <c r="AD368" s="97"/>
+      <c r="AE368" s="97"/>
+      <c r="AF368" s="97"/>
+      <c r="AG368" s="97"/>
+      <c r="AH368" s="97"/>
+      <c r="AI368" s="97"/>
+      <c r="AJ368" s="97"/>
+      <c r="AK368" s="97"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="95"/>
+      <c r="B369" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="AC363" s="96"/>
-      <c r="AD363" s="99"/>
-      <c r="AE363" s="99"/>
-      <c r="AF363" s="99"/>
-      <c r="AG363" s="99"/>
-      <c r="AH363" s="99"/>
-      <c r="AI363" s="99"/>
-      <c r="AJ363" s="99"/>
-      <c r="AK363" s="99"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="97"/>
-      <c r="AC364" s="96"/>
-      <c r="AD364" s="99"/>
-      <c r="AE364" s="99"/>
-      <c r="AF364" s="99"/>
-      <c r="AG364" s="99"/>
-      <c r="AH364" s="99"/>
-      <c r="AI364" s="99"/>
-      <c r="AJ364" s="99"/>
-      <c r="AK364" s="99"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="97"/>
-      <c r="B365" s="100" t="s">
+      <c r="AC369" s="94"/>
+      <c r="AD369" s="98"/>
+      <c r="AE369" s="98"/>
+      <c r="AF369" s="98"/>
+      <c r="AG369" s="98"/>
+      <c r="AH369" s="98"/>
+      <c r="AI369" s="98"/>
+      <c r="AJ369" s="98"/>
+      <c r="AK369" s="98"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="95"/>
+      <c r="AC370" s="94"/>
+      <c r="AD370" s="98"/>
+      <c r="AE370" s="98"/>
+      <c r="AF370" s="98"/>
+      <c r="AG370" s="98"/>
+      <c r="AH370" s="98"/>
+      <c r="AI370" s="98"/>
+      <c r="AJ370" s="98"/>
+      <c r="AK370" s="98"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="95"/>
+      <c r="B371" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="AC365" s="96"/>
-      <c r="AD365" s="100"/>
-      <c r="AE365" s="100"/>
-      <c r="AF365" s="100"/>
-      <c r="AG365" s="100"/>
-      <c r="AH365" s="100"/>
-      <c r="AI365" s="100"/>
-      <c r="AJ365" s="100"/>
-      <c r="AK365" s="100"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="97"/>
-      <c r="AC366" s="96"/>
-      <c r="AD366" s="100"/>
-      <c r="AE366" s="100"/>
-      <c r="AF366" s="100"/>
-      <c r="AG366" s="100"/>
-      <c r="AH366" s="100"/>
-      <c r="AI366" s="100"/>
-      <c r="AJ366" s="100"/>
-      <c r="AK366" s="100"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="97"/>
-      <c r="B367" s="100" t="s">
+      <c r="AC371" s="94"/>
+      <c r="AD371" s="98"/>
+      <c r="AE371" s="98"/>
+      <c r="AF371" s="98"/>
+      <c r="AG371" s="98"/>
+      <c r="AH371" s="98"/>
+      <c r="AI371" s="98"/>
+      <c r="AJ371" s="98"/>
+      <c r="AK371" s="98"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="95"/>
+      <c r="AC372" s="94"/>
+      <c r="AD372" s="98"/>
+      <c r="AE372" s="98"/>
+      <c r="AF372" s="98"/>
+      <c r="AG372" s="98"/>
+      <c r="AH372" s="98"/>
+      <c r="AI372" s="98"/>
+      <c r="AJ372" s="98"/>
+      <c r="AK372" s="98"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="95"/>
+      <c r="B373" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="AC367" s="96"/>
-      <c r="AD367" s="100"/>
-      <c r="AE367" s="100"/>
-      <c r="AF367" s="100"/>
-      <c r="AG367" s="100"/>
-      <c r="AH367" s="100"/>
-      <c r="AI367" s="100"/>
-      <c r="AJ367" s="100"/>
-      <c r="AK367" s="100"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="97"/>
-      <c r="AC368" s="96"/>
-      <c r="AD368" s="100"/>
-      <c r="AE368" s="100"/>
-      <c r="AF368" s="100"/>
-      <c r="AG368" s="100"/>
-      <c r="AH368" s="100"/>
-      <c r="AI368" s="100"/>
-      <c r="AJ368" s="100"/>
-      <c r="AK368" s="100"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="97"/>
-      <c r="B369" s="100" t="s">
+      <c r="AC373" s="94"/>
+      <c r="AD373" s="98"/>
+      <c r="AE373" s="98"/>
+      <c r="AF373" s="98"/>
+      <c r="AG373" s="98"/>
+      <c r="AH373" s="98"/>
+      <c r="AI373" s="98"/>
+      <c r="AJ373" s="98"/>
+      <c r="AK373" s="98"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="99"/>
+      <c r="AC374" s="94"/>
+      <c r="AD374" s="98"/>
+      <c r="AE374" s="98"/>
+      <c r="AF374" s="98"/>
+      <c r="AG374" s="98"/>
+      <c r="AH374" s="98"/>
+      <c r="AI374" s="98"/>
+      <c r="AJ374" s="98"/>
+      <c r="AK374" s="98"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="92"/>
+      <c r="B375" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="AC369" s="96"/>
-      <c r="AD369" s="100"/>
-      <c r="AE369" s="100"/>
-      <c r="AF369" s="100"/>
-      <c r="AG369" s="100"/>
-      <c r="AH369" s="100"/>
-      <c r="AI369" s="100"/>
-      <c r="AJ369" s="100"/>
-      <c r="AK369" s="100"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="101"/>
-      <c r="AC370" s="96"/>
-      <c r="AD370" s="100"/>
-      <c r="AE370" s="100"/>
-      <c r="AF370" s="100"/>
-      <c r="AG370" s="100"/>
-      <c r="AH370" s="100"/>
-      <c r="AI370" s="100"/>
-      <c r="AJ370" s="100"/>
-      <c r="AK370" s="100"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="94"/>
-      <c r="B371" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC371" s="96"/>
-      <c r="AD371" s="95"/>
-      <c r="AE371" s="95"/>
-      <c r="AF371" s="95"/>
-      <c r="AG371" s="95"/>
-      <c r="AH371" s="95"/>
-      <c r="AI371" s="95"/>
-      <c r="AJ371" s="95"/>
-      <c r="AK371" s="95"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="102"/>
-      <c r="AC372" s="96"/>
-      <c r="AD372" s="95"/>
-      <c r="AE372" s="95"/>
-      <c r="AF372" s="95"/>
-      <c r="AG372" s="95"/>
-      <c r="AH372" s="95"/>
-      <c r="AI372" s="95"/>
-      <c r="AJ372" s="95"/>
-      <c r="AK372" s="95"/>
-    </row>
-    <row r="373" ht="6.0" customHeight="1">
-      <c r="A373" s="103"/>
-      <c r="B373" s="74"/>
-      <c r="C373" s="74"/>
-      <c r="D373" s="74"/>
-      <c r="E373" s="74"/>
-      <c r="F373" s="74"/>
-      <c r="G373" s="74"/>
-      <c r="H373" s="74"/>
-      <c r="I373" s="74"/>
-      <c r="J373" s="74"/>
-      <c r="K373" s="74"/>
-      <c r="L373" s="74"/>
-      <c r="M373" s="74"/>
-      <c r="N373" s="74"/>
-      <c r="O373" s="74"/>
-      <c r="P373" s="74"/>
-      <c r="Q373" s="74"/>
-      <c r="R373" s="74"/>
-      <c r="S373" s="74"/>
-      <c r="T373" s="74"/>
-      <c r="U373" s="74"/>
-      <c r="V373" s="74"/>
-      <c r="W373" s="74"/>
-      <c r="X373" s="74"/>
-      <c r="Y373" s="74"/>
-      <c r="Z373" s="74"/>
-      <c r="AA373" s="74"/>
-      <c r="AB373" s="74"/>
-      <c r="AC373" s="104"/>
-      <c r="AD373" s="55"/>
-      <c r="AE373" s="55"/>
-      <c r="AF373" s="55"/>
-      <c r="AG373" s="55"/>
-      <c r="AH373" s="55"/>
-      <c r="AI373" s="55"/>
-      <c r="AJ373" s="55"/>
-      <c r="AK373" s="55"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="105"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="18"/>
-      <c r="B375" s="106"/>
-      <c r="C375" s="107" t="s">
-        <v>241</v>
-      </c>
+      <c r="AC375" s="94"/>
+      <c r="AD375" s="93"/>
+      <c r="AE375" s="93"/>
+      <c r="AF375" s="93"/>
+      <c r="AG375" s="93"/>
+      <c r="AH375" s="93"/>
+      <c r="AI375" s="93"/>
+      <c r="AJ375" s="93"/>
+      <c r="AK375" s="93"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="105"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="18"/>
-      <c r="B377" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="R377" s="107" t="s">
-        <v>243</v>
-      </c>
+      <c r="A376" s="100"/>
+      <c r="AC376" s="94"/>
+      <c r="AD376" s="93"/>
+      <c r="AE376" s="93"/>
+      <c r="AF376" s="93"/>
+      <c r="AG376" s="93"/>
+      <c r="AH376" s="93"/>
+      <c r="AI376" s="93"/>
+      <c r="AJ376" s="93"/>
+      <c r="AK376" s="93"/>
+    </row>
+    <row r="377" ht="6.0" customHeight="1">
+      <c r="A377" s="101"/>
+      <c r="B377" s="72"/>
+      <c r="C377" s="72"/>
+      <c r="D377" s="72"/>
+      <c r="E377" s="72"/>
+      <c r="F377" s="72"/>
+      <c r="G377" s="72"/>
+      <c r="H377" s="72"/>
+      <c r="I377" s="72"/>
+      <c r="J377" s="72"/>
+      <c r="K377" s="72"/>
+      <c r="L377" s="72"/>
+      <c r="M377" s="72"/>
+      <c r="N377" s="72"/>
+      <c r="O377" s="72"/>
+      <c r="P377" s="72"/>
+      <c r="Q377" s="72"/>
+      <c r="R377" s="72"/>
+      <c r="S377" s="72"/>
+      <c r="T377" s="72"/>
+      <c r="U377" s="72"/>
+      <c r="V377" s="72"/>
+      <c r="W377" s="72"/>
+      <c r="X377" s="72"/>
+      <c r="Y377" s="72"/>
+      <c r="Z377" s="72"/>
+      <c r="AA377" s="72"/>
+      <c r="AB377" s="72"/>
+      <c r="AC377" s="102"/>
+      <c r="AD377" s="53"/>
+      <c r="AE377" s="53"/>
+      <c r="AF377" s="53"/>
+      <c r="AG377" s="53"/>
+      <c r="AH377" s="53"/>
+      <c r="AI377" s="53"/>
+      <c r="AJ377" s="53"/>
+      <c r="AK377" s="53"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="105"/>
+      <c r="A378" s="103"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="18"/>
-      <c r="B379" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R379" s="74"/>
-      <c r="S379" s="74"/>
-      <c r="T379" s="74"/>
-      <c r="U379" s="74"/>
-      <c r="V379" s="74"/>
-      <c r="W379" s="74"/>
-      <c r="X379" s="74"/>
-      <c r="Y379" s="74"/>
-      <c r="Z379" s="74"/>
-      <c r="AA379" s="74"/>
+      <c r="B379" s="104"/>
+      <c r="C379" s="105" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="109"/>
+      <c r="A380" s="103"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="18"/>
-      <c r="B381" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD381" s="95"/>
-      <c r="AE381" s="95"/>
-      <c r="AF381" s="95"/>
-      <c r="AG381" s="95"/>
-      <c r="AH381" s="95"/>
-      <c r="AI381" s="95"/>
-      <c r="AJ381" s="95"/>
-      <c r="AK381" s="95"/>
+      <c r="B381" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="R381" s="105" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="105"/>
-      <c r="AD382" s="95"/>
-      <c r="AE382" s="95"/>
-      <c r="AF382" s="95"/>
-      <c r="AG382" s="95"/>
-      <c r="AH382" s="95"/>
-      <c r="AI382" s="95"/>
-      <c r="AJ382" s="95"/>
-      <c r="AK382" s="95"/>
+      <c r="A382" s="103"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="18"/>
+      <c r="B383" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R383" s="72"/>
+      <c r="S383" s="72"/>
+      <c r="T383" s="72"/>
+      <c r="U383" s="72"/>
+      <c r="V383" s="72"/>
+      <c r="W383" s="72"/>
+      <c r="X383" s="72"/>
+      <c r="Y383" s="72"/>
+      <c r="Z383" s="72"/>
+      <c r="AA383" s="72"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="105"/>
-      <c r="B384" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="R384" s="107" t="s">
-        <v>246</v>
-      </c>
+      <c r="A384" s="107"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="105"/>
-      <c r="E385" s="110"/>
+      <c r="A385" s="18"/>
+      <c r="B385" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD385" s="93"/>
+      <c r="AE385" s="93"/>
+      <c r="AF385" s="93"/>
+      <c r="AG385" s="93"/>
+      <c r="AH385" s="93"/>
+      <c r="AI385" s="93"/>
+      <c r="AJ385" s="93"/>
+      <c r="AK385" s="93"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="105"/>
-      <c r="E386" s="110"/>
+      <c r="A386" s="103"/>
+      <c r="AD386" s="93"/>
+      <c r="AE386" s="93"/>
+      <c r="AF386" s="93"/>
+      <c r="AG386" s="93"/>
+      <c r="AH386" s="93"/>
+      <c r="AI386" s="93"/>
+      <c r="AJ386" s="93"/>
+      <c r="AK386" s="93"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="18"/>
-      <c r="B387" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R387" s="74"/>
-      <c r="S387" s="74"/>
-      <c r="T387" s="74"/>
-      <c r="U387" s="74"/>
-      <c r="V387" s="74"/>
-      <c r="W387" s="74"/>
-      <c r="X387" s="74"/>
-      <c r="Y387" s="74"/>
-      <c r="Z387" s="74"/>
-      <c r="AA387" s="74"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="18"/>
-      <c r="B388" s="108"/>
+      <c r="A388" s="103"/>
+      <c r="B388" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="R388" s="105" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="18"/>
-      <c r="B389" s="111"/>
-      <c r="E389" s="110"/>
+      <c r="A389" s="103"/>
+      <c r="E389" s="108"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="18"/>
-      <c r="B390" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R390" s="74"/>
-      <c r="S390" s="74"/>
-      <c r="T390" s="74"/>
-      <c r="U390" s="74"/>
-      <c r="V390" s="74"/>
-      <c r="W390" s="74"/>
-      <c r="X390" s="74"/>
-      <c r="Y390" s="74"/>
-      <c r="Z390" s="74"/>
-      <c r="AA390" s="74"/>
+      <c r="A390" s="103"/>
+      <c r="E390" s="108"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="18"/>
-      <c r="B391" s="108"/>
+      <c r="B391" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R391" s="72"/>
+      <c r="S391" s="72"/>
+      <c r="T391" s="72"/>
+      <c r="U391" s="72"/>
+      <c r="V391" s="72"/>
+      <c r="W391" s="72"/>
+      <c r="X391" s="72"/>
+      <c r="Y391" s="72"/>
+      <c r="Z391" s="72"/>
+      <c r="AA391" s="72"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="18"/>
-      <c r="B392" s="111"/>
-      <c r="E392" s="110"/>
+      <c r="B392" s="106"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="18"/>
-      <c r="B393" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R393" s="74"/>
-      <c r="S393" s="74"/>
-      <c r="T393" s="74"/>
-      <c r="U393" s="74"/>
-      <c r="V393" s="74"/>
-      <c r="W393" s="74"/>
-      <c r="X393" s="74"/>
-      <c r="Y393" s="74"/>
-      <c r="Z393" s="74"/>
-      <c r="AA393" s="74"/>
+      <c r="B393" s="109"/>
+      <c r="E393" s="108"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="18"/>
-      <c r="B394" s="108"/>
+      <c r="B394" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R394" s="72"/>
+      <c r="S394" s="72"/>
+      <c r="T394" s="72"/>
+      <c r="U394" s="72"/>
+      <c r="V394" s="72"/>
+      <c r="W394" s="72"/>
+      <c r="X394" s="72"/>
+      <c r="Y394" s="72"/>
+      <c r="Z394" s="72"/>
+      <c r="AA394" s="72"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="18"/>
-      <c r="B395" s="111"/>
-      <c r="E395" s="110"/>
+      <c r="B395" s="106"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="18"/>
-      <c r="B396" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R396" s="74"/>
-      <c r="S396" s="74"/>
-      <c r="T396" s="74"/>
-      <c r="U396" s="74"/>
-      <c r="V396" s="74"/>
-      <c r="W396" s="74"/>
-      <c r="X396" s="74"/>
-      <c r="Y396" s="74"/>
-      <c r="Z396" s="74"/>
-      <c r="AA396" s="74"/>
+      <c r="B396" s="109"/>
+      <c r="E396" s="108"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="18"/>
+      <c r="B397" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R397" s="72"/>
+      <c r="S397" s="72"/>
+      <c r="T397" s="72"/>
+      <c r="U397" s="72"/>
+      <c r="V397" s="72"/>
+      <c r="W397" s="72"/>
+      <c r="X397" s="72"/>
+      <c r="Y397" s="72"/>
+      <c r="Z397" s="72"/>
+      <c r="AA397" s="72"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="18"/>
-      <c r="E398" s="110"/>
+      <c r="B398" s="106"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="18"/>
-      <c r="B399" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R399" s="74"/>
-      <c r="S399" s="74"/>
-      <c r="T399" s="74"/>
-      <c r="U399" s="74"/>
-      <c r="V399" s="74"/>
-      <c r="W399" s="74"/>
-      <c r="X399" s="74"/>
-      <c r="Y399" s="74"/>
-      <c r="Z399" s="74"/>
-      <c r="AA399" s="74"/>
+      <c r="B399" s="109"/>
+      <c r="E399" s="108"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="18"/>
+      <c r="B400" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R400" s="72"/>
+      <c r="S400" s="72"/>
+      <c r="T400" s="72"/>
+      <c r="U400" s="72"/>
+      <c r="V400" s="72"/>
+      <c r="W400" s="72"/>
+      <c r="X400" s="72"/>
+      <c r="Y400" s="72"/>
+      <c r="Z400" s="72"/>
+      <c r="AA400" s="72"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="18"/>
-      <c r="E401" s="110"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="18"/>
-      <c r="B402" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R402" s="74"/>
-      <c r="S402" s="74"/>
-      <c r="T402" s="74"/>
-      <c r="U402" s="74"/>
-      <c r="V402" s="74"/>
-      <c r="W402" s="74"/>
-      <c r="X402" s="74"/>
-      <c r="Y402" s="74"/>
-      <c r="Z402" s="74"/>
-      <c r="AA402" s="74"/>
+      <c r="E402" s="108"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="18"/>
+      <c r="B403" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R403" s="72"/>
+      <c r="S403" s="72"/>
+      <c r="T403" s="72"/>
+      <c r="U403" s="72"/>
+      <c r="V403" s="72"/>
+      <c r="W403" s="72"/>
+      <c r="X403" s="72"/>
+      <c r="Y403" s="72"/>
+      <c r="Z403" s="72"/>
+      <c r="AA403" s="72"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="18"/>
-      <c r="E404" s="110"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="18"/>
-      <c r="B405" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R405" s="74"/>
-      <c r="S405" s="74"/>
-      <c r="T405" s="74"/>
-      <c r="U405" s="74"/>
-      <c r="V405" s="74"/>
-      <c r="W405" s="74"/>
-      <c r="X405" s="74"/>
-      <c r="Y405" s="74"/>
-      <c r="Z405" s="74"/>
-      <c r="AA405" s="74"/>
+      <c r="E405" s="108"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="18"/>
+      <c r="B406" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R406" s="72"/>
+      <c r="S406" s="72"/>
+      <c r="T406" s="72"/>
+      <c r="U406" s="72"/>
+      <c r="V406" s="72"/>
+      <c r="W406" s="72"/>
+      <c r="X406" s="72"/>
+      <c r="Y406" s="72"/>
+      <c r="Z406" s="72"/>
+      <c r="AA406" s="72"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="18"/>
-      <c r="E407" s="110"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="18"/>
-      <c r="B408" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="R408" s="74"/>
-      <c r="S408" s="74"/>
-      <c r="T408" s="74"/>
-      <c r="U408" s="74"/>
-      <c r="V408" s="74"/>
-      <c r="W408" s="74"/>
-      <c r="X408" s="74"/>
-      <c r="Y408" s="74"/>
-      <c r="Z408" s="74"/>
-      <c r="AA408" s="74"/>
+      <c r="E408" s="108"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="18"/>
+      <c r="B409" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R409" s="72"/>
+      <c r="S409" s="72"/>
+      <c r="T409" s="72"/>
+      <c r="U409" s="72"/>
+      <c r="V409" s="72"/>
+      <c r="W409" s="72"/>
+      <c r="X409" s="72"/>
+      <c r="Y409" s="72"/>
+      <c r="Z409" s="72"/>
+      <c r="AA409" s="72"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="18"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="18"/>
+      <c r="E411" s="108"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="18"/>
+      <c r="B412" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="R412" s="72"/>
+      <c r="S412" s="72"/>
+      <c r="T412" s="72"/>
+      <c r="U412" s="72"/>
+      <c r="V412" s="72"/>
+      <c r="W412" s="72"/>
+      <c r="X412" s="72"/>
+      <c r="Y412" s="72"/>
+      <c r="Z412" s="72"/>
+      <c r="AA412" s="72"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="18"/>
@@ -9334,8 +9320,102 @@
     <row r="1011" ht="15.75" customHeight="1">
       <c r="A1011" s="18"/>
     </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="A1012" s="18"/>
+    </row>
+    <row r="1013" ht="15.75" customHeight="1">
+      <c r="A1013" s="18"/>
+    </row>
+    <row r="1014" ht="15.75" customHeight="1">
+      <c r="A1014" s="18"/>
+    </row>
+    <row r="1015" ht="15.75" customHeight="1">
+      <c r="A1015" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="126">
+    <mergeCell ref="M142:P142"/>
+    <mergeCell ref="Q142:R142"/>
+    <mergeCell ref="D144:AC146"/>
+    <mergeCell ref="B151:AC151"/>
+    <mergeCell ref="D153:AC155"/>
+    <mergeCell ref="F156:AC157"/>
+    <mergeCell ref="B159:AC159"/>
+    <mergeCell ref="K160:M160"/>
+    <mergeCell ref="B177:AC177"/>
+    <mergeCell ref="A184:AC187"/>
+    <mergeCell ref="A188:AC190"/>
+    <mergeCell ref="B191:AC191"/>
+    <mergeCell ref="B195:AC197"/>
+    <mergeCell ref="B198:AC198"/>
+    <mergeCell ref="T216:U216"/>
+    <mergeCell ref="W216:X216"/>
+    <mergeCell ref="B212:AC213"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="I352:J352"/>
+    <mergeCell ref="L352:M352"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="C354:Q355"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="F357:G357"/>
+    <mergeCell ref="I357:J357"/>
+    <mergeCell ref="L357:M357"/>
+    <mergeCell ref="C359:Q360"/>
+    <mergeCell ref="N277:O277"/>
+    <mergeCell ref="Q277:R277"/>
+    <mergeCell ref="T277:U277"/>
+    <mergeCell ref="W277:X277"/>
+    <mergeCell ref="B264:AC265"/>
+    <mergeCell ref="B271:AC271"/>
+    <mergeCell ref="B273:AC275"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="K277:L277"/>
+    <mergeCell ref="B281:AC281"/>
+    <mergeCell ref="B283:AC284"/>
+    <mergeCell ref="D288:AC289"/>
+    <mergeCell ref="B293:AC295"/>
+    <mergeCell ref="B297:AC298"/>
+    <mergeCell ref="B300:AC300"/>
+    <mergeCell ref="B316:AC316"/>
+    <mergeCell ref="R352:S352"/>
+    <mergeCell ref="U352:V352"/>
+    <mergeCell ref="B318:AC319"/>
+    <mergeCell ref="B321:AC321"/>
+    <mergeCell ref="B323:AC324"/>
+    <mergeCell ref="B326:AC326"/>
+    <mergeCell ref="B328:AC329"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="X352:Y352"/>
+    <mergeCell ref="B371:AC372"/>
+    <mergeCell ref="B373:AC374"/>
+    <mergeCell ref="B375:AC376"/>
+    <mergeCell ref="B385:AC386"/>
+    <mergeCell ref="O357:P357"/>
+    <mergeCell ref="R357:S357"/>
+    <mergeCell ref="U357:V357"/>
+    <mergeCell ref="X357:Y357"/>
+    <mergeCell ref="B364:AC365"/>
+    <mergeCell ref="B367:AC368"/>
+    <mergeCell ref="B369:AC370"/>
+    <mergeCell ref="Q40:AB40"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="Q38:AB38"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="Q42:AB42"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="Q44:AB44"/>
+    <mergeCell ref="B44:M44"/>
     <mergeCell ref="A1:AC2"/>
     <mergeCell ref="A5:AC5"/>
     <mergeCell ref="A6:AC6"/>
@@ -9343,125 +9423,48 @@
     <mergeCell ref="E11:R11"/>
     <mergeCell ref="E12:R12"/>
     <mergeCell ref="B34:AC34"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="Q38:AB38"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B42:AC42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="Q40:AB40"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B59:AC59"/>
-    <mergeCell ref="B70:AC70"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="B83:AC83"/>
-    <mergeCell ref="P86:X86"/>
-    <mergeCell ref="B91:AC91"/>
-    <mergeCell ref="A94:AC94"/>
-    <mergeCell ref="G95:X95"/>
-    <mergeCell ref="G96:X96"/>
-    <mergeCell ref="G97:X97"/>
-    <mergeCell ref="G98:X98"/>
+    <mergeCell ref="A98:AC98"/>
     <mergeCell ref="G99:X99"/>
     <mergeCell ref="G100:X100"/>
     <mergeCell ref="G101:X101"/>
     <mergeCell ref="G102:X102"/>
-    <mergeCell ref="A103:AC103"/>
-    <mergeCell ref="A104:AC104"/>
-    <mergeCell ref="G107:X107"/>
+    <mergeCell ref="G103:X103"/>
+    <mergeCell ref="G104:X104"/>
+    <mergeCell ref="G105:X105"/>
+    <mergeCell ref="G106:X106"/>
+    <mergeCell ref="A107:AC107"/>
     <mergeCell ref="A108:AC108"/>
-    <mergeCell ref="A110:AC110"/>
-    <mergeCell ref="A111:AC111"/>
-    <mergeCell ref="A112:AC113"/>
-    <mergeCell ref="B123:AC123"/>
-    <mergeCell ref="D125:AC125"/>
-    <mergeCell ref="D133:AC133"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="M138:P138"/>
-    <mergeCell ref="D140:AC142"/>
-    <mergeCell ref="B147:AC147"/>
-    <mergeCell ref="D149:AC151"/>
-    <mergeCell ref="F152:AC153"/>
-    <mergeCell ref="B155:AC155"/>
-    <mergeCell ref="K156:M156"/>
-    <mergeCell ref="W273:X273"/>
-    <mergeCell ref="B277:AC277"/>
-    <mergeCell ref="B279:AC280"/>
-    <mergeCell ref="D284:AC285"/>
-    <mergeCell ref="B289:AC291"/>
-    <mergeCell ref="B293:AC294"/>
-    <mergeCell ref="B296:AC296"/>
-    <mergeCell ref="B312:AC312"/>
-    <mergeCell ref="B314:AC315"/>
-    <mergeCell ref="B317:AC317"/>
-    <mergeCell ref="B319:AC320"/>
-    <mergeCell ref="B322:AC322"/>
-    <mergeCell ref="B324:AC325"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="O348:P348"/>
-    <mergeCell ref="C350:Q351"/>
-    <mergeCell ref="C353:D353"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="I353:J353"/>
-    <mergeCell ref="L353:M353"/>
-    <mergeCell ref="O353:P353"/>
-    <mergeCell ref="C355:Q356"/>
-    <mergeCell ref="B369:AC370"/>
-    <mergeCell ref="B371:AC372"/>
-    <mergeCell ref="B381:AC382"/>
-    <mergeCell ref="R353:S353"/>
-    <mergeCell ref="U353:V353"/>
-    <mergeCell ref="X353:Y353"/>
-    <mergeCell ref="B360:AC361"/>
-    <mergeCell ref="B363:AC364"/>
-    <mergeCell ref="B365:AC366"/>
-    <mergeCell ref="B367:AC368"/>
-    <mergeCell ref="B173:AC173"/>
-    <mergeCell ref="A180:AC183"/>
-    <mergeCell ref="A184:AC186"/>
-    <mergeCell ref="B187:AC187"/>
-    <mergeCell ref="B191:AC193"/>
-    <mergeCell ref="B194:AC194"/>
-    <mergeCell ref="B208:AC209"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="T212:U212"/>
-    <mergeCell ref="W212:X212"/>
-    <mergeCell ref="B234:AC234"/>
+    <mergeCell ref="G111:X111"/>
+    <mergeCell ref="A112:AC112"/>
+    <mergeCell ref="A114:AC114"/>
+    <mergeCell ref="A115:AC115"/>
+    <mergeCell ref="A116:AC117"/>
+    <mergeCell ref="B127:AC127"/>
+    <mergeCell ref="D129:AC129"/>
+    <mergeCell ref="D137:AC137"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:N141"/>
     <mergeCell ref="B238:AC238"/>
-    <mergeCell ref="K244:M244"/>
-    <mergeCell ref="A245:AC248"/>
-    <mergeCell ref="B249:AC249"/>
-    <mergeCell ref="B251:AC253"/>
-    <mergeCell ref="K273:L273"/>
-    <mergeCell ref="N273:O273"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="T273:U273"/>
-    <mergeCell ref="B258:AC258"/>
-    <mergeCell ref="B260:AC261"/>
-    <mergeCell ref="B267:AC267"/>
-    <mergeCell ref="B269:AC271"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="H273:I273"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="I348:J348"/>
-    <mergeCell ref="L348:M348"/>
-    <mergeCell ref="R348:S348"/>
-    <mergeCell ref="U348:V348"/>
-    <mergeCell ref="X348:Y348"/>
+    <mergeCell ref="B242:AC242"/>
+    <mergeCell ref="K248:M248"/>
+    <mergeCell ref="A249:AC252"/>
+    <mergeCell ref="B253:AC253"/>
+    <mergeCell ref="B255:AC257"/>
+    <mergeCell ref="B262:AC262"/>
+    <mergeCell ref="B46:AC46"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:AC63"/>
+    <mergeCell ref="B74:AC74"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="B87:AC87"/>
+    <mergeCell ref="P90:X90"/>
+    <mergeCell ref="B95:AC95"/>
+    <mergeCell ref="B58:I58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G107"/>
-    <hyperlink r:id="rId2" ref="B337"/>
-    <hyperlink r:id="rId3" location="TOC3_1" ref="B339"/>
+    <hyperlink r:id="rId1" ref="G111"/>
+    <hyperlink r:id="rId2" ref="B341"/>
+    <hyperlink r:id="rId3" location="TOC3_1" ref="B343"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.35433070866141736" footer="0.0" header="0.0" left="0.5511811023622047" right="0.6299212598425197" top="0.35433070866141736"/>
